--- a/scrap/old BLM/full_inorg_SPEC.det.xlsx
+++ b/scrap/old BLM/full_inorg_SPEC.det.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,32 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kellyc\Documents\BLM Development\engine\BLMEngineInR\scrap\old BLM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CB664F-CB0A-49B2-BD36-2A1591A96A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D600E28-B7AE-4C06-A0A7-BE5F34D0C06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="full_inorg_SPEC.det" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="109">
   <si>
     <t>Ver 3.57.2.45d, build 2024-03-06</t>
   </si>
@@ -338,47 +325,35 @@
     <t>"Temp ser 25         "</t>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>T.Cu (mol/L)</t>
-  </si>
-  <si>
-    <t>Cu (mol)</t>
-  </si>
-  <si>
-    <t>BL1-Cu (mol)</t>
-  </si>
-  <si>
-    <t>BL1-CuOH (mol)</t>
-  </si>
-  <si>
-    <t>CuOH (mol)</t>
-  </si>
-  <si>
-    <t>Cu(OH)2 (mol)</t>
-  </si>
-  <si>
-    <t>CuSO4 (mol)</t>
-  </si>
-  <si>
-    <t>CuCO3 (mol)</t>
-  </si>
-  <si>
-    <t>Cu(CO3)2 (mol)</t>
-  </si>
-  <si>
-    <t>CuCl (mol)</t>
-  </si>
-  <si>
-    <t>CuHCO3 (mol)</t>
+    <t>"Cu ser 0.01         "</t>
+  </si>
+  <si>
+    <t>"Cu ser 0.1          "</t>
+  </si>
+  <si>
+    <t>"Cu ser 1            "</t>
+  </si>
+  <si>
+    <t>"Cu ser 10           "</t>
+  </si>
+  <si>
+    <t>"Cu ser 100          "</t>
+  </si>
+  <si>
+    <t>"Cu ser 1000         "</t>
+  </si>
+  <si>
+    <t>"Cu ser 10000        "</t>
+  </si>
+  <si>
+    <t>"Cu ser 100000       "</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -387,12 +362,6 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -412,41 +381,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -775,46 +727,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DK26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BS34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CL1" workbookViewId="0">
-      <selection activeCell="DB7" sqref="DB7:DK26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="12" hidden="1" customWidth="1"/>
-    <col min="5" max="14" width="0" hidden="1" customWidth="1"/>
-    <col min="17" max="30" width="0" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="0" hidden="1" customWidth="1"/>
-    <col min="40" max="60" width="0" hidden="1" customWidth="1"/>
-    <col min="62" max="71" width="0" hidden="1" customWidth="1"/>
-    <col min="83" max="95" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:115" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:115" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:115" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:115" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:115" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1028,82 +972,8 @@
       <c r="BS5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BT5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="BU5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="BV5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="BW5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="BX5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="BY5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BZ5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="CA5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="CB5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CC5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="CD5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="CG5" s="5"/>
-      <c r="CH5" s="5"/>
-      <c r="CI5" s="5"/>
-      <c r="CJ5" s="5"/>
-      <c r="CK5" s="5"/>
-      <c r="CL5" s="5"/>
-      <c r="CM5" s="5"/>
-      <c r="CN5" s="5"/>
-      <c r="CO5" s="5"/>
-      <c r="CP5" s="5"/>
-      <c r="CQ5" s="5"/>
-      <c r="CR5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="CS5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="CT5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="CU5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="CV5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="CW5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="CY5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="CZ5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="DA5" s="2" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="6" spans="1:115" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>74</v>
       </c>
@@ -1296,104 +1166,8 @@
       <c r="BS6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="BT6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BU6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BV6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BW6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BX6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BY6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BZ6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CA6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CB6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CC6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CD6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CG6" t="s">
-        <v>103</v>
-      </c>
-      <c r="CH6" t="s">
-        <v>104</v>
-      </c>
-      <c r="CI6" t="s">
-        <v>105</v>
-      </c>
-      <c r="CJ6" t="s">
-        <v>106</v>
-      </c>
-      <c r="CK6" t="s">
-        <v>107</v>
-      </c>
-      <c r="CL6" t="s">
-        <v>108</v>
-      </c>
-      <c r="CM6" t="s">
-        <v>109</v>
-      </c>
-      <c r="CN6" t="s">
-        <v>110</v>
-      </c>
-      <c r="CO6" t="s">
-        <v>111</v>
-      </c>
-      <c r="CP6" t="s">
-        <v>112</v>
-      </c>
-      <c r="CQ6" t="s">
-        <v>102</v>
-      </c>
-      <c r="CR6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CS6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CT6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CU6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CV6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CW6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CX6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CY6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CZ6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="DA6" s="2" t="s">
-        <v>101</v>
-      </c>
     </row>
-    <row r="7" spans="1:115" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>80</v>
       </c>
@@ -1607,168 +1381,8 @@
       <c r="BS7" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
-      <c r="BT7" s="3">
-        <f>D7/$BI7</f>
-        <v>0.23688055545975617</v>
-      </c>
-      <c r="BU7" s="3">
-        <f>O7/$BI7</f>
-        <v>7.0128870508923895E-4</v>
-      </c>
-      <c r="BV7" s="3">
-        <f>P7/$BI7</f>
-        <v>5.3746230251598532E-5</v>
-      </c>
-      <c r="BW7" s="3">
-        <f>AE7/$BI7</f>
-        <v>0.11081568624301412</v>
-      </c>
-      <c r="BX7" s="3">
-        <f>AF7/$BI7</f>
-        <v>3.6000357203285478E-3</v>
-      </c>
-      <c r="BY7" s="3">
-        <f>AG7/$BI7</f>
-        <v>3.8449217260721463E-3</v>
-      </c>
-      <c r="BZ7" s="3">
-        <f>AH7/$BI7</f>
-        <v>0.21155356778768594</v>
-      </c>
-      <c r="CA7" s="3">
-        <f>AI7/$BI7</f>
-        <v>6.092966486317716E-5</v>
-      </c>
-      <c r="CB7" s="3">
-        <f>AJ7/$BI7</f>
-        <v>3.2708933682485588E-6</v>
-      </c>
-      <c r="CC7" s="3">
-        <f>AK7/$BI7</f>
-        <v>0.43324384283480633</v>
-      </c>
-      <c r="CD7" s="3">
-        <f>AM7/$BI7</f>
-        <v>3.7967264751575287E-11</v>
-      </c>
-      <c r="CF7">
-        <v>1</v>
-      </c>
-      <c r="CG7" s="4">
-        <v>9.9318209999999997E-8</v>
-      </c>
-      <c r="CH7" s="4">
-        <v>3.0728250000000002E-10</v>
-      </c>
-      <c r="CI7" s="4">
-        <v>2.2779150000000002E-11</v>
-      </c>
-      <c r="CJ7" s="4">
-        <v>4.7032340000000003E-8</v>
-      </c>
-      <c r="CK7" s="4">
-        <v>1.546692E-9</v>
-      </c>
-      <c r="CL7" s="4">
-        <v>1.615034E-9</v>
-      </c>
-      <c r="CM7" s="4">
-        <v>8.8994330000000002E-8</v>
-      </c>
-      <c r="CN7" s="4">
-        <v>2.571789E-11</v>
-      </c>
-      <c r="CO7" s="4">
-        <v>1.3733830000000001E-12</v>
-      </c>
-      <c r="CP7" s="4">
-        <v>1.8225429999999999E-7</v>
-      </c>
-      <c r="CQ7" s="4">
-        <v>4.2111809999999999E-7</v>
-      </c>
-      <c r="CR7" s="3">
-        <f>CG7/$CQ7</f>
-        <v>0.2358440779439307</v>
-      </c>
-      <c r="CS7" s="3">
-        <f t="shared" ref="CS7:DA22" si="0">CH7/$CQ7</f>
-        <v>7.2968248099523631E-4</v>
-      </c>
-      <c r="CT7" s="3">
-        <f t="shared" si="0"/>
-        <v>5.4092070609171162E-5</v>
-      </c>
-      <c r="CU7" s="3">
-        <f t="shared" si="0"/>
-        <v>0.11168444196532992</v>
-      </c>
-      <c r="CV7" s="3">
-        <f t="shared" si="0"/>
-        <v>3.6728224220236557E-3</v>
-      </c>
-      <c r="CW7" s="3">
-        <f t="shared" si="0"/>
-        <v>3.8351094384211936E-3</v>
-      </c>
-      <c r="CX7" s="3">
-        <f t="shared" si="0"/>
-        <v>0.21132867478267975</v>
-      </c>
-      <c r="CY7" s="3">
-        <f t="shared" si="0"/>
-        <v>6.1070493051711624E-5</v>
-      </c>
-      <c r="CZ7" s="3">
-        <f t="shared" si="0"/>
-        <v>3.2612775371089489E-6</v>
-      </c>
-      <c r="DA7" s="3">
-        <f t="shared" si="0"/>
-        <v>0.43278666958271322</v>
-      </c>
-      <c r="DB7" s="6">
-        <f>BT7-CR7</f>
-        <v>1.0364775158254735E-3</v>
-      </c>
-      <c r="DC7" s="6">
-        <f>BU7-CS7</f>
-        <v>-2.8393775905997368E-5</v>
-      </c>
-      <c r="DD7" s="6">
-        <f>BV7-CT7</f>
-        <v>-3.4584035757262974E-7</v>
-      </c>
-      <c r="DE7" s="6">
-        <f>BW7-CU7</f>
-        <v>-8.6875572231580322E-4</v>
-      </c>
-      <c r="DF7" s="6">
-        <f>BX7-CV7</f>
-        <v>-7.2786701695107866E-5</v>
-      </c>
-      <c r="DG7" s="6">
-        <f>BY7-CW7</f>
-        <v>9.8122876509526384E-6</v>
-      </c>
-      <c r="DH7" s="6">
-        <f>BZ7-CX7</f>
-        <v>2.2489300500619369E-4</v>
-      </c>
-      <c r="DI7" s="6">
-        <f>CA7-CY7</f>
-        <v>-1.4082818853446399E-7</v>
-      </c>
-      <c r="DJ7" s="6">
-        <f>CB7-CZ7</f>
-        <v>9.6158311396098966E-9</v>
-      </c>
-      <c r="DK7" s="6">
-        <f>CC7-DA7</f>
-        <v>4.5717325209310156E-4</v>
-      </c>
     </row>
-    <row r="8" spans="1:115" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>80</v>
       </c>
@@ -1982,168 +1596,8 @@
       <c r="BS8" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
-      <c r="BT8" s="3">
-        <f t="shared" ref="BT8:BT26" si="1">D8/$BI8</f>
-        <v>0.14880138434347992</v>
-      </c>
-      <c r="BU8" s="3">
-        <f t="shared" ref="BU8:BU26" si="2">O8/$BI8</f>
-        <v>4.8493414643124383E-4</v>
-      </c>
-      <c r="BV8" s="3">
-        <f t="shared" ref="BV8:BV26" si="3">P8/$BI8</f>
-        <v>3.7034842038820524E-5</v>
-      </c>
-      <c r="BW8" s="3">
-        <f t="shared" ref="BW8:BW26" si="4">AE8/$BI8</f>
-        <v>6.7639029110317231E-2</v>
-      </c>
-      <c r="BX8" s="3">
-        <f t="shared" ref="BX8:BX26" si="5">AF8/$BI8</f>
-        <v>2.1748821067180102E-3</v>
-      </c>
-      <c r="BY8" s="3">
-        <f t="shared" ref="BY8:BY26" si="6">AG8/$BI8</f>
-        <v>4.4160095583451889E-3</v>
-      </c>
-      <c r="BZ8" s="3">
-        <f t="shared" ref="BZ8:BZ26" si="7">AH8/$BI8</f>
-        <v>0.25310973801909087</v>
-      </c>
-      <c r="CA8" s="3">
-        <f t="shared" ref="CA8:CA26" si="8">AI8/$BI8</f>
-        <v>1.5011551631541044E-4</v>
-      </c>
-      <c r="CB8" s="3">
-        <f t="shared" ref="CB8:CB26" si="9">AJ8/$BI8</f>
-        <v>3.9520793136972306E-6</v>
-      </c>
-      <c r="CC8" s="3">
-        <f t="shared" ref="CC8:CC26" si="10">AK8/$BI8</f>
-        <v>0.52370670324305924</v>
-      </c>
-      <c r="CD8" s="3">
-        <f t="shared" ref="CD8:CD26" si="11">AM8/$BI8</f>
-        <v>3.1202098333013068E-11</v>
-      </c>
-      <c r="CF8">
-        <v>2</v>
-      </c>
-      <c r="CG8" s="4">
-        <v>6.2412679999999995E-8</v>
-      </c>
-      <c r="CH8" s="4">
-        <v>2.1337260000000001E-10</v>
-      </c>
-      <c r="CI8" s="4">
-        <v>1.581752E-11</v>
-      </c>
-      <c r="CJ8" s="4">
-        <v>2.8718110000000001E-8</v>
-      </c>
-      <c r="CK8" s="4">
-        <v>9.3474850000000004E-10</v>
-      </c>
-      <c r="CL8" s="4">
-        <v>1.855525E-9</v>
-      </c>
-      <c r="CM8" s="4">
-        <v>1.0651149999999999E-7</v>
-      </c>
-      <c r="CN8" s="4">
-        <v>6.3382049999999999E-11</v>
-      </c>
-      <c r="CO8" s="4">
-        <v>1.6600169999999999E-12</v>
-      </c>
-      <c r="CP8" s="4">
-        <v>2.2038420000000001E-7</v>
-      </c>
-      <c r="CQ8" s="4">
-        <v>4.2111110000000001E-7</v>
-      </c>
-      <c r="CR8" s="3">
-        <f>CG8/$CQ8</f>
-        <v>0.14820953425354971</v>
-      </c>
-      <c r="CS8" s="3">
-        <f t="shared" si="0"/>
-        <v>5.0668956482030516E-4</v>
-      </c>
-      <c r="CT8" s="3">
-        <f t="shared" si="0"/>
-        <v>3.7561394130907498E-5</v>
-      </c>
-      <c r="CU8" s="3">
-        <f t="shared" si="0"/>
-        <v>6.8196041377204253E-2</v>
-      </c>
-      <c r="CV8" s="3">
-        <f t="shared" si="0"/>
-        <v>2.2197194517076372E-3</v>
-      </c>
-      <c r="CW8" s="3">
-        <f t="shared" si="0"/>
-        <v>4.4062600107192609E-3</v>
-      </c>
-      <c r="CX8" s="3">
-        <f t="shared" si="0"/>
-        <v>0.25292969005091526</v>
-      </c>
-      <c r="CY8" s="3">
-        <f t="shared" si="0"/>
-        <v>1.5051146835122608E-4</v>
-      </c>
-      <c r="CZ8" s="3">
-        <f t="shared" si="0"/>
-        <v>3.9419929799998146E-6</v>
-      </c>
-      <c r="DA8" s="3">
-        <f t="shared" si="0"/>
-        <v>0.52333980272664382</v>
-      </c>
-      <c r="DB8" s="6">
-        <f>BT8-CR8</f>
-        <v>5.9185008993020705E-4</v>
-      </c>
-      <c r="DC8" s="6">
-        <f>BU8-CS8</f>
-        <v>-2.1755418389061336E-5</v>
-      </c>
-      <c r="DD8" s="6">
-        <f>BV8-CT8</f>
-        <v>-5.265520920869738E-7</v>
-      </c>
-      <c r="DE8" s="6">
-        <f>BW8-CU8</f>
-        <v>-5.5701226688702199E-4</v>
-      </c>
-      <c r="DF8" s="6">
-        <f>BX8-CV8</f>
-        <v>-4.4837344989626972E-5</v>
-      </c>
-      <c r="DG8" s="6">
-        <f>BY8-CW8</f>
-        <v>9.7495476259279804E-6</v>
-      </c>
-      <c r="DH8" s="6">
-        <f>BZ8-CX8</f>
-        <v>1.8004796817561175E-4</v>
-      </c>
-      <c r="DI8" s="6">
-        <f>CA8-CY8</f>
-        <v>-3.95952035815646E-7</v>
-      </c>
-      <c r="DJ8" s="6">
-        <f>CB8-CZ8</f>
-        <v>1.0086333697416004E-8</v>
-      </c>
-      <c r="DK8" s="6">
-        <f>CC8-DA8</f>
-        <v>3.6690051641541377E-4</v>
-      </c>
     </row>
-    <row r="9" spans="1:115" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>80</v>
       </c>
@@ -2357,168 +1811,8 @@
       <c r="BS9" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
-      <c r="BT9" s="3">
-        <f t="shared" si="1"/>
-        <v>7.3690385664476568E-2</v>
-      </c>
-      <c r="BU9" s="3">
-        <f t="shared" si="2"/>
-        <v>1.9903197257726773E-4</v>
-      </c>
-      <c r="BV9" s="3">
-        <f t="shared" si="3"/>
-        <v>1.509540014982791E-5</v>
-      </c>
-      <c r="BW9" s="3">
-        <f t="shared" si="4"/>
-        <v>3.1776647275671345E-2</v>
-      </c>
-      <c r="BX9" s="3">
-        <f t="shared" si="5"/>
-        <v>1.0020090211904451E-3</v>
-      </c>
-      <c r="BY9" s="3">
-        <f t="shared" si="6"/>
-        <v>4.6024048020890818E-3</v>
-      </c>
-      <c r="BZ9" s="3">
-        <f t="shared" si="7"/>
-        <v>0.28569712859885199</v>
-      </c>
-      <c r="CA9" s="3">
-        <f t="shared" si="8"/>
-        <v>4.4622237905832908E-4</v>
-      </c>
-      <c r="CB9" s="3">
-        <f t="shared" si="9"/>
-        <v>4.5519936076519155E-6</v>
-      </c>
-      <c r="CC9" s="3">
-        <f t="shared" si="10"/>
-        <v>0.60278151020429926</v>
-      </c>
-      <c r="CD9" s="3">
-        <f t="shared" si="11"/>
-        <v>2.4416422254742355E-11</v>
-      </c>
-      <c r="CF9">
-        <v>3</v>
-      </c>
-      <c r="CG9" s="4">
-        <v>3.0921359999999998E-8</v>
-      </c>
-      <c r="CH9" s="4">
-        <v>8.7087060000000002E-11</v>
-      </c>
-      <c r="CI9" s="4">
-        <v>6.4558219999999998E-12</v>
-      </c>
-      <c r="CJ9" s="4">
-        <v>1.349726E-8</v>
-      </c>
-      <c r="CK9" s="4">
-        <v>4.3083170000000003E-10</v>
-      </c>
-      <c r="CL9" s="4">
-        <v>1.9344949999999999E-9</v>
-      </c>
-      <c r="CM9" s="4">
-        <v>1.2028240000000001E-7</v>
-      </c>
-      <c r="CN9" s="4">
-        <v>1.885083E-10</v>
-      </c>
-      <c r="CO9" s="4">
-        <v>1.912797E-12</v>
-      </c>
-      <c r="CP9" s="4">
-        <v>2.5378329999999999E-7</v>
-      </c>
-      <c r="CQ9" s="4">
-        <v>4.211336E-7</v>
-      </c>
-      <c r="CR9" s="3">
-        <f>CG9/$CQ9</f>
-        <v>7.3424110543542476E-2</v>
-      </c>
-      <c r="CS9" s="3">
-        <f t="shared" si="0"/>
-        <v>2.0679200139813114E-4</v>
-      </c>
-      <c r="CT9" s="3">
-        <f t="shared" si="0"/>
-        <v>1.5329629362273636E-5</v>
-      </c>
-      <c r="CU9" s="3">
-        <f t="shared" si="0"/>
-        <v>3.204982931782218E-2</v>
-      </c>
-      <c r="CV9" s="3">
-        <f t="shared" si="0"/>
-        <v>1.0230285591080837E-3</v>
-      </c>
-      <c r="CW9" s="3">
-        <f t="shared" si="0"/>
-        <v>4.5935422868182444E-3</v>
-      </c>
-      <c r="CX9" s="3">
-        <f t="shared" si="0"/>
-        <v>0.28561577608625865</v>
-      </c>
-      <c r="CY9" s="3">
-        <f t="shared" si="0"/>
-        <v>4.4762113495574801E-4</v>
-      </c>
-      <c r="CZ9" s="3">
-        <f t="shared" si="0"/>
-        <v>4.5420194446607921E-6</v>
-      </c>
-      <c r="DA9" s="3">
-        <f t="shared" si="0"/>
-        <v>0.60261945377903825</v>
-      </c>
-      <c r="DB9" s="6">
-        <f>BT9-CR9</f>
-        <v>2.6627512093409245E-4</v>
-      </c>
-      <c r="DC9" s="6">
-        <f>BU9-CS9</f>
-        <v>-7.7600288208634139E-6</v>
-      </c>
-      <c r="DD9" s="6">
-        <f>BV9-CT9</f>
-        <v>-2.3422921244572557E-7</v>
-      </c>
-      <c r="DE9" s="6">
-        <f>BW9-CU9</f>
-        <v>-2.7318204215083519E-4</v>
-      </c>
-      <c r="DF9" s="6">
-        <f>BX9-CV9</f>
-        <v>-2.1019537917638543E-5</v>
-      </c>
-      <c r="DG9" s="6">
-        <f>BY9-CW9</f>
-        <v>8.8625152708373886E-6</v>
-      </c>
-      <c r="DH9" s="6">
-        <f>BZ9-CX9</f>
-        <v>8.1352512593335646E-5</v>
-      </c>
-      <c r="DI9" s="6">
-        <f>CA9-CY9</f>
-        <v>-1.3987558974189337E-6</v>
-      </c>
-      <c r="DJ9" s="6">
-        <f>CB9-CZ9</f>
-        <v>9.9741629911234019E-9</v>
-      </c>
-      <c r="DK9" s="6">
-        <f>CC9-DA9</f>
-        <v>1.620564252610146E-4</v>
-      </c>
     </row>
-    <row r="10" spans="1:115" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>80</v>
       </c>
@@ -2732,168 +2026,8 @@
       <c r="BS10" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
-      <c r="BT10" s="3">
-        <f t="shared" si="1"/>
-        <v>4.2102950844522008E-2</v>
-      </c>
-      <c r="BU10" s="3">
-        <f t="shared" si="2"/>
-        <v>7.6608622536842683E-5</v>
-      </c>
-      <c r="BV10" s="3">
-        <f t="shared" si="3"/>
-        <v>5.7753924351200673E-6</v>
-      </c>
-      <c r="BW10" s="3">
-        <f t="shared" si="4"/>
-        <v>1.7213287481348084E-2</v>
-      </c>
-      <c r="BX10" s="3">
-        <f t="shared" si="5"/>
-        <v>5.3169339636824115E-4</v>
-      </c>
-      <c r="BY10" s="3">
-        <f t="shared" si="6"/>
-        <v>4.3850489629437255E-3</v>
-      </c>
-      <c r="BZ10" s="3">
-        <f t="shared" si="7"/>
-        <v>0.29639336800693644</v>
-      </c>
-      <c r="CA10" s="3">
-        <f t="shared" si="8"/>
-        <v>9.7453797491645153E-4</v>
-      </c>
-      <c r="CB10" s="3">
-        <f t="shared" si="9"/>
-        <v>4.8308337601539534E-6</v>
-      </c>
-      <c r="CC10" s="3">
-        <f t="shared" si="10"/>
-        <v>0.63839381979008614</v>
-      </c>
-      <c r="CD10" s="3">
-        <f t="shared" si="11"/>
-        <v>2.0201850691089821E-11</v>
-      </c>
-      <c r="CF10">
-        <v>4</v>
-      </c>
-      <c r="CG10" s="4">
-        <v>1.7670569999999998E-8</v>
-      </c>
-      <c r="CH10" s="4">
-        <v>3.3260539999999998E-11</v>
-      </c>
-      <c r="CI10" s="4">
-        <v>2.4656089999999999E-12</v>
-      </c>
-      <c r="CJ10" s="4">
-        <v>7.3128599999999999E-9</v>
-      </c>
-      <c r="CK10" s="4">
-        <v>2.2865439999999999E-10</v>
-      </c>
-      <c r="CL10" s="4">
-        <v>1.843353E-9</v>
-      </c>
-      <c r="CM10" s="4">
-        <v>1.2481250000000001E-7</v>
-      </c>
-      <c r="CN10" s="4">
-        <v>4.1179240000000002E-10</v>
-      </c>
-      <c r="CO10" s="4">
-        <v>2.0303780000000001E-12</v>
-      </c>
-      <c r="CP10" s="4">
-        <v>2.6883670000000001E-7</v>
-      </c>
-      <c r="CQ10" s="4">
-        <v>4.2115420000000002E-7</v>
-      </c>
-      <c r="CR10" s="3">
-        <f>CG10/$CQ10</f>
-        <v>4.195748255627036E-2</v>
-      </c>
-      <c r="CS10" s="3">
-        <f t="shared" si="0"/>
-        <v>7.8974731820316633E-5</v>
-      </c>
-      <c r="CT10" s="3">
-        <f t="shared" si="0"/>
-        <v>5.8544091451539599E-6</v>
-      </c>
-      <c r="CU10" s="3">
-        <f t="shared" si="0"/>
-        <v>1.7363853904341923E-2</v>
-      </c>
-      <c r="CV10" s="3">
-        <f t="shared" si="0"/>
-        <v>5.4292323334303679E-4</v>
-      </c>
-      <c r="CW10" s="3">
-        <f t="shared" si="0"/>
-        <v>4.3769075554749301E-3</v>
-      </c>
-      <c r="CX10" s="3">
-        <f t="shared" si="0"/>
-        <v>0.29635819849356837</v>
-      </c>
-      <c r="CY10" s="3">
-        <f t="shared" si="0"/>
-        <v>9.7777108716949764E-4</v>
-      </c>
-      <c r="CZ10" s="3">
-        <f t="shared" si="0"/>
-        <v>4.8209848079397048E-6</v>
-      </c>
-      <c r="DA10" s="3">
-        <f t="shared" si="0"/>
-        <v>0.63833318057851496</v>
-      </c>
-      <c r="DB10" s="6">
-        <f>BT10-CR10</f>
-        <v>1.4546828825164754E-4</v>
-      </c>
-      <c r="DC10" s="6">
-        <f>BU10-CS10</f>
-        <v>-2.3661092834739505E-6</v>
-      </c>
-      <c r="DD10" s="6">
-        <f>BV10-CT10</f>
-        <v>-7.90167100338926E-8</v>
-      </c>
-      <c r="DE10" s="6">
-        <f>BW10-CU10</f>
-        <v>-1.5056642299383916E-4</v>
-      </c>
-      <c r="DF10" s="6">
-        <f>BX10-CV10</f>
-        <v>-1.1229836974795647E-5</v>
-      </c>
-      <c r="DG10" s="6">
-        <f>BY10-CW10</f>
-        <v>8.1414074687953877E-6</v>
-      </c>
-      <c r="DH10" s="6">
-        <f>BZ10-CX10</f>
-        <v>3.5169513368071836E-5</v>
-      </c>
-      <c r="DI10" s="6">
-        <f>CA10-CY10</f>
-        <v>-3.2331122530461064E-6</v>
-      </c>
-      <c r="DJ10" s="6">
-        <f>CB10-CZ10</f>
-        <v>9.8489522142485226E-9</v>
-      </c>
-      <c r="DK10" s="6">
-        <f>CC10-DA10</f>
-        <v>6.0639211571178464E-5</v>
-      </c>
     </row>
-    <row r="11" spans="1:115" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>80</v>
       </c>
@@ -3107,168 +2241,8 @@
       <c r="BS11" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
-      <c r="BT11" s="3">
-        <f t="shared" si="1"/>
-        <v>2.4044289917224609E-2</v>
-      </c>
-      <c r="BU11" s="3">
-        <f t="shared" si="2"/>
-        <v>2.5661247645081908E-5</v>
-      </c>
-      <c r="BV11" s="3">
-        <f t="shared" si="3"/>
-        <v>1.9228171080727392E-6</v>
-      </c>
-      <c r="BW11" s="3">
-        <f t="shared" si="4"/>
-        <v>9.2000631055481931E-3</v>
-      </c>
-      <c r="BX11" s="3">
-        <f t="shared" si="5"/>
-        <v>2.7658445179161987E-4</v>
-      </c>
-      <c r="BY11" s="3">
-        <f t="shared" si="6"/>
-        <v>3.9662498132193207E-3</v>
-      </c>
-      <c r="BZ11" s="3">
-        <f t="shared" si="7"/>
-        <v>0.29891637510095775</v>
-      </c>
-      <c r="CA11" s="3">
-        <f t="shared" si="8"/>
-        <v>2.0918394715561204E-3</v>
-      </c>
-      <c r="CB11" s="3">
-        <f t="shared" si="9"/>
-        <v>5.0259432910842366E-6</v>
-      </c>
-      <c r="CC11" s="3">
-        <f t="shared" si="10"/>
-        <v>0.66150076639132915</v>
-      </c>
-      <c r="CD11" s="3">
-        <f t="shared" si="11"/>
-        <v>1.6083884133169762E-11</v>
-      </c>
-      <c r="CF11">
-        <v>5</v>
-      </c>
-      <c r="CG11" s="4">
-        <v>1.009187E-8</v>
-      </c>
-      <c r="CH11" s="4">
-        <v>1.1095950000000001E-11</v>
-      </c>
-      <c r="CI11" s="4">
-        <v>8.2255620000000001E-13</v>
-      </c>
-      <c r="CJ11" s="4">
-        <v>3.908752E-9</v>
-      </c>
-      <c r="CK11" s="4">
-        <v>1.189528E-10</v>
-      </c>
-      <c r="CL11" s="4">
-        <v>1.667167E-9</v>
-      </c>
-      <c r="CM11" s="4">
-        <v>1.2586949999999999E-7</v>
-      </c>
-      <c r="CN11" s="4">
-        <v>8.8380960000000005E-10</v>
-      </c>
-      <c r="CO11" s="4">
-        <v>2.1124659999999999E-12</v>
-      </c>
-      <c r="CP11" s="4">
-        <v>2.785522E-7</v>
-      </c>
-      <c r="CQ11" s="4">
-        <v>4.2110630000000002E-7</v>
-      </c>
-      <c r="CR11" s="3">
-        <f>CG11/$CQ11</f>
-        <v>2.3965136593776915E-2</v>
-      </c>
-      <c r="CS11" s="3">
-        <f t="shared" si="0"/>
-        <v>2.6349522673966168E-5</v>
-      </c>
-      <c r="CT11" s="3">
-        <f t="shared" si="0"/>
-        <v>1.9533219996946139E-6</v>
-      </c>
-      <c r="CU11" s="3">
-        <f t="shared" si="0"/>
-        <v>9.282102879961663E-3</v>
-      </c>
-      <c r="CV11" s="3">
-        <f t="shared" si="0"/>
-        <v>2.82476894788798E-4</v>
-      </c>
-      <c r="CW11" s="3">
-        <f t="shared" si="0"/>
-        <v>3.959016998795791E-3</v>
-      </c>
-      <c r="CX11" s="3">
-        <f t="shared" si="0"/>
-        <v>0.29890196370845079</v>
-      </c>
-      <c r="CY11" s="3">
-        <f t="shared" si="0"/>
-        <v>2.098780284218023E-3</v>
-      </c>
-      <c r="CZ11" s="3">
-        <f t="shared" si="0"/>
-        <v>5.0164673385318622E-6</v>
-      </c>
-      <c r="DA11" s="3">
-        <f t="shared" si="0"/>
-        <v>0.66147716146730651</v>
-      </c>
-      <c r="DB11" s="6">
-        <f>BT11-CR11</f>
-        <v>7.9153323447694185E-5</v>
-      </c>
-      <c r="DC11" s="6">
-        <f>BU11-CS11</f>
-        <v>-6.8827502888426035E-7</v>
-      </c>
-      <c r="DD11" s="6">
-        <f>BV11-CT11</f>
-        <v>-3.0504891621874672E-8</v>
-      </c>
-      <c r="DE11" s="6">
-        <f>BW11-CU11</f>
-        <v>-8.2039774413469879E-5</v>
-      </c>
-      <c r="DF11" s="6">
-        <f>BX11-CV11</f>
-        <v>-5.892442997178129E-6</v>
-      </c>
-      <c r="DG11" s="6">
-        <f>BY11-CW11</f>
-        <v>7.2328144235297293E-6</v>
-      </c>
-      <c r="DH11" s="6">
-        <f>BZ11-CX11</f>
-        <v>1.4411392506963328E-5</v>
-      </c>
-      <c r="DI11" s="6">
-        <f>CA11-CY11</f>
-        <v>-6.9408126619025998E-6</v>
-      </c>
-      <c r="DJ11" s="6">
-        <f>CB11-CZ11</f>
-        <v>9.4759525523744142E-9</v>
-      </c>
-      <c r="DK11" s="6">
-        <f>CC11-DA11</f>
-        <v>2.3604924022646578E-5</v>
-      </c>
     </row>
-    <row r="12" spans="1:115" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>80</v>
       </c>
@@ -3482,168 +2456,8 @@
       <c r="BS12" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
-      <c r="BT12" s="3">
-        <f t="shared" si="1"/>
-        <v>1.1695757532491908E-2</v>
-      </c>
-      <c r="BU12" s="3">
-        <f t="shared" si="2"/>
-        <v>5.5381762820371364E-6</v>
-      </c>
-      <c r="BV12" s="3">
-        <f t="shared" si="3"/>
-        <v>4.1153682699761001E-7</v>
-      </c>
-      <c r="BW12" s="3">
-        <f t="shared" si="4"/>
-        <v>4.0175380456383318E-3</v>
-      </c>
-      <c r="BX12" s="3">
-        <f t="shared" si="5"/>
-        <v>1.1512676388262162E-4</v>
-      </c>
-      <c r="BY12" s="3">
-        <f t="shared" si="6"/>
-        <v>3.2638774248333466E-3</v>
-      </c>
-      <c r="BZ12" s="3">
-        <f t="shared" si="7"/>
-        <v>0.29359756325959585</v>
-      </c>
-      <c r="CA12" s="3">
-        <f t="shared" si="8"/>
-        <v>5.6656932586786534E-3</v>
-      </c>
-      <c r="CB12" s="3">
-        <f t="shared" si="9"/>
-        <v>5.2300607211958563E-6</v>
-      </c>
-      <c r="CC12" s="3">
-        <f t="shared" si="10"/>
-        <v>0.68163791706505905</v>
-      </c>
-      <c r="CD12" s="3">
-        <f t="shared" si="11"/>
-        <v>1.0648157441037641E-11</v>
-      </c>
-      <c r="CF12">
-        <v>6</v>
-      </c>
-      <c r="CG12" s="4">
-        <v>4.909248E-9</v>
-      </c>
-      <c r="CH12" s="4">
-        <v>2.4061319999999999E-12</v>
-      </c>
-      <c r="CI12" s="4">
-        <v>1.783693E-13</v>
-      </c>
-      <c r="CJ12" s="4">
-        <v>1.7069899999999999E-9</v>
-      </c>
-      <c r="CK12" s="4">
-        <v>4.951608E-11</v>
-      </c>
-      <c r="CL12" s="4">
-        <v>1.371804E-9</v>
-      </c>
-      <c r="CM12" s="4">
-        <v>1.2362979999999999E-7</v>
-      </c>
-      <c r="CN12" s="4">
-        <v>2.3936629999999999E-9</v>
-      </c>
-      <c r="CO12" s="4">
-        <v>2.1983759999999999E-12</v>
-      </c>
-      <c r="CP12" s="4">
-        <v>2.8703229999999998E-7</v>
-      </c>
-      <c r="CQ12" s="4">
-        <v>4.2109820000000001E-7</v>
-      </c>
-      <c r="CR12" s="3">
-        <f>CG12/$CQ12</f>
-        <v>1.1658202291057049E-2</v>
-      </c>
-      <c r="CS12" s="3">
-        <f t="shared" si="0"/>
-        <v>5.7139451082906545E-6</v>
-      </c>
-      <c r="CT12" s="3">
-        <f t="shared" si="0"/>
-        <v>4.2358124541971446E-7</v>
-      </c>
-      <c r="CU12" s="3">
-        <f t="shared" si="0"/>
-        <v>4.0536625423713514E-3</v>
-      </c>
-      <c r="CV12" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1758796404259148E-4</v>
-      </c>
-      <c r="CW12" s="3">
-        <f t="shared" si="0"/>
-        <v>3.2576819373723279E-3</v>
-      </c>
-      <c r="CX12" s="3">
-        <f t="shared" si="0"/>
-        <v>0.293589001330331</v>
-      </c>
-      <c r="CY12" s="3">
-        <f t="shared" si="0"/>
-        <v>5.6843344379054576E-3</v>
-      </c>
-      <c r="CZ12" s="3">
-        <f t="shared" si="0"/>
-        <v>5.220578002945631E-6</v>
-      </c>
-      <c r="DA12" s="3">
-        <f t="shared" si="0"/>
-        <v>0.68162794331583454</v>
-      </c>
-      <c r="DB12" s="6">
-        <f>BT12-CR12</f>
-        <v>3.7555241434858097E-5</v>
-      </c>
-      <c r="DC12" s="6">
-        <f>BU12-CS12</f>
-        <v>-1.7576882625351809E-7</v>
-      </c>
-      <c r="DD12" s="6">
-        <f>BV12-CT12</f>
-        <v>-1.2044418422104449E-8</v>
-      </c>
-      <c r="DE12" s="6">
-        <f>BW12-CU12</f>
-        <v>-3.6124496733019526E-5</v>
-      </c>
-      <c r="DF12" s="6">
-        <f>BX12-CV12</f>
-        <v>-2.4612001599698592E-6</v>
-      </c>
-      <c r="DG12" s="6">
-        <f>BY12-CW12</f>
-        <v>6.1954874610186707E-6</v>
-      </c>
-      <c r="DH12" s="6">
-        <f>BZ12-CX12</f>
-        <v>8.5619292648497769E-6</v>
-      </c>
-      <c r="DI12" s="6">
-        <f>CA12-CY12</f>
-        <v>-1.8641179226804201E-5</v>
-      </c>
-      <c r="DJ12" s="6">
-        <f>CB12-CZ12</f>
-        <v>9.4827182502252479E-9</v>
-      </c>
-      <c r="DK12" s="6">
-        <f>CC12-DA12</f>
-        <v>9.9737492245122183E-6</v>
-      </c>
     </row>
-    <row r="13" spans="1:115" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>80</v>
       </c>
@@ -3857,168 +2671,8 @@
       <c r="BS13" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
-      <c r="BT13" s="3">
-        <f t="shared" si="1"/>
-        <v>6.9290649288448287E-3</v>
-      </c>
-      <c r="BU13" s="3">
-        <f t="shared" si="2"/>
-        <v>1.696145564710226E-6</v>
-      </c>
-      <c r="BV13" s="3">
-        <f t="shared" si="3"/>
-        <v>1.2507154749212508E-7</v>
-      </c>
-      <c r="BW13" s="3">
-        <f t="shared" si="4"/>
-        <v>2.1635593453089162E-3</v>
-      </c>
-      <c r="BX13" s="3">
-        <f t="shared" si="5"/>
-        <v>5.9143087550663624E-5</v>
-      </c>
-      <c r="BY13" s="3">
-        <f t="shared" si="6"/>
-        <v>2.7179607461758218E-3</v>
-      </c>
-      <c r="BZ13" s="3">
-        <f t="shared" si="7"/>
-        <v>0.28429217344072555</v>
-      </c>
-      <c r="CA13" s="3">
-        <f t="shared" si="8"/>
-        <v>1.1925274626652925E-2</v>
-      </c>
-      <c r="CB13" s="3">
-        <f t="shared" si="9"/>
-        <v>5.3735913530181917E-6</v>
-      </c>
-      <c r="CC13" s="3">
-        <f t="shared" si="10"/>
-        <v>0.69190636628868918</v>
-      </c>
-      <c r="CD13" s="3">
-        <f t="shared" si="11"/>
-        <v>6.9085657001518041E-12</v>
-      </c>
-      <c r="CF13">
-        <v>7</v>
-      </c>
-      <c r="CG13" s="4">
-        <v>2.9086040000000001E-9</v>
-      </c>
-      <c r="CH13" s="4">
-        <v>7.4678769999999998E-13</v>
-      </c>
-      <c r="CI13" s="4">
-        <v>5.5359639999999999E-14</v>
-      </c>
-      <c r="CJ13" s="4">
-        <v>9.1929710000000003E-10</v>
-      </c>
-      <c r="CK13" s="4">
-        <v>2.5438119999999999E-11</v>
-      </c>
-      <c r="CL13" s="4">
-        <v>1.142307E-9</v>
-      </c>
-      <c r="CM13" s="4">
-        <v>1.1971359999999999E-7</v>
-      </c>
-      <c r="CN13" s="4">
-        <v>5.0382189999999997E-9</v>
-      </c>
-      <c r="CO13" s="4">
-        <v>2.2588120000000001E-12</v>
-      </c>
-      <c r="CP13" s="4">
-        <v>2.9136490000000002E-7</v>
-      </c>
-      <c r="CQ13" s="4">
-        <v>4.2111539999999999E-7</v>
-      </c>
-      <c r="CR13" s="3">
-        <f>CG13/$CQ13</f>
-        <v>6.9069048531590158E-3</v>
-      </c>
-      <c r="CS13" s="3">
-        <f t="shared" si="0"/>
-        <v>1.773356424391034E-6</v>
-      </c>
-      <c r="CT13" s="3">
-        <f t="shared" si="0"/>
-        <v>1.3145954766793142E-7</v>
-      </c>
-      <c r="CU13" s="3">
-        <f t="shared" si="0"/>
-        <v>2.1830051810026421E-3</v>
-      </c>
-      <c r="CV13" s="3">
-        <f t="shared" si="0"/>
-        <v>6.0406529896555668E-5</v>
-      </c>
-      <c r="CW13" s="3">
-        <f t="shared" si="0"/>
-        <v>2.7125747479194539E-3</v>
-      </c>
-      <c r="CX13" s="3">
-        <f t="shared" si="0"/>
-        <v>0.28427742134341322</v>
-      </c>
-      <c r="CY13" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1963986593698545E-2</v>
-      </c>
-      <c r="CZ13" s="3">
-        <f t="shared" si="0"/>
-        <v>5.3638788797560004E-6</v>
-      </c>
-      <c r="DA13" s="3">
-        <f t="shared" si="0"/>
-        <v>0.6918884942227238</v>
-      </c>
-      <c r="DB13" s="6">
-        <f>BT13-CR13</f>
-        <v>2.2160075685812887E-5</v>
-      </c>
-      <c r="DC13" s="6">
-        <f>BU13-CS13</f>
-        <v>-7.7210859680808006E-8</v>
-      </c>
-      <c r="DD13" s="6">
-        <f>BV13-CT13</f>
-        <v>-6.3880001758063376E-9</v>
-      </c>
-      <c r="DE13" s="6">
-        <f>BW13-CU13</f>
-        <v>-1.9445835693725905E-5</v>
-      </c>
-      <c r="DF13" s="6">
-        <f>BX13-CV13</f>
-        <v>-1.2634423458920437E-6</v>
-      </c>
-      <c r="DG13" s="6">
-        <f>BY13-CW13</f>
-        <v>5.3859982563678709E-6</v>
-      </c>
-      <c r="DH13" s="6">
-        <f>BZ13-CX13</f>
-        <v>1.4752097312331625E-5</v>
-      </c>
-      <c r="DI13" s="6">
-        <f>CA13-CY13</f>
-        <v>-3.8711967045619231E-5</v>
-      </c>
-      <c r="DJ13" s="6">
-        <f>CB13-CZ13</f>
-        <v>9.7124732621913426E-9</v>
-      </c>
-      <c r="DK13" s="6">
-        <f>CC13-DA13</f>
-        <v>1.7872065965374162E-5</v>
-      </c>
     </row>
-    <row r="14" spans="1:115" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>80</v>
       </c>
@@ -4232,168 +2886,8 @@
       <c r="BS14" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
-      <c r="BT14" s="3">
-        <f t="shared" si="1"/>
-        <v>0.87148753617757846</v>
-      </c>
-      <c r="BU14" s="3">
-        <f t="shared" si="2"/>
-        <v>2.4661646568829333E-4</v>
-      </c>
-      <c r="BV14" s="3">
-        <f t="shared" si="3"/>
-        <v>4.9186016177270162E-9</v>
-      </c>
-      <c r="BW14" s="3">
-        <f t="shared" si="4"/>
-        <v>9.8642112713593919E-5</v>
-      </c>
-      <c r="BX14" s="3">
-        <f t="shared" si="5"/>
-        <v>8.2919436985228419E-10</v>
-      </c>
-      <c r="BY14" s="3">
-        <f t="shared" si="6"/>
-        <v>7.9310307533122945E-2</v>
-      </c>
-      <c r="BZ14" s="3">
-        <f t="shared" si="7"/>
-        <v>6.1929528284550899E-6</v>
-      </c>
-      <c r="CA14" s="3">
-        <f t="shared" si="8"/>
-        <v>1.9002731465931762E-14</v>
-      </c>
-      <c r="CB14" s="3">
-        <f t="shared" si="9"/>
-        <v>8.3197018628457998E-5</v>
-      </c>
-      <c r="CC14" s="3">
-        <f t="shared" si="10"/>
-        <v>4.9014084849248928E-2</v>
-      </c>
-      <c r="CD14" s="3">
-        <f t="shared" si="11"/>
-        <v>1.3870936619186566E-12</v>
-      </c>
-      <c r="CF14">
-        <v>8</v>
-      </c>
-      <c r="CG14" s="4">
-        <v>3.6676780000000001E-7</v>
-      </c>
-      <c r="CH14" s="4">
-        <v>1.04783E-10</v>
-      </c>
-      <c r="CI14" s="4">
-        <v>2.0906909999999999E-15</v>
-      </c>
-      <c r="CJ14" s="4">
-        <v>4.202263E-11</v>
-      </c>
-      <c r="CK14" s="4">
-        <v>3.5758340000000001E-16</v>
-      </c>
-      <c r="CL14" s="4">
-        <v>3.3432329999999997E-8</v>
-      </c>
-      <c r="CM14" s="4">
-        <v>2.6200499999999999E-12</v>
-      </c>
-      <c r="CN14" s="4">
-        <v>8.0824549999999998E-21</v>
-      </c>
-      <c r="CO14" s="4">
-        <v>3.5063569999999999E-11</v>
-      </c>
-      <c r="CP14" s="4">
-        <v>2.073664E-8</v>
-      </c>
-      <c r="CQ14" s="4">
-        <v>4.2112130000000001E-7</v>
-      </c>
-      <c r="CR14" s="3">
-        <f>CG14/$CQ14</f>
-        <v>0.87093148696112022</v>
-      </c>
-      <c r="CS14" s="3">
-        <f t="shared" si="0"/>
-        <v>2.4881904572388052E-4</v>
-      </c>
-      <c r="CT14" s="3">
-        <f t="shared" si="0"/>
-        <v>4.9645814638205187E-9</v>
-      </c>
-      <c r="CU14" s="3">
-        <f t="shared" si="0"/>
-        <v>9.9787472160634008E-5</v>
-      </c>
-      <c r="CV14" s="3">
-        <f t="shared" si="0"/>
-        <v>8.491220938005273E-10</v>
-      </c>
-      <c r="CW14" s="3">
-        <f t="shared" si="0"/>
-        <v>7.9388836423139833E-2</v>
-      </c>
-      <c r="CX14" s="3">
-        <f t="shared" si="0"/>
-        <v>6.2216040841439268E-6</v>
-      </c>
-      <c r="CY14" s="3">
-        <f t="shared" si="0"/>
-        <v>1.9192700535451423E-14</v>
-      </c>
-      <c r="CZ14" s="3">
-        <f t="shared" si="0"/>
-        <v>8.3262399693390002E-5</v>
-      </c>
-      <c r="DA14" s="3">
-        <f t="shared" si="0"/>
-        <v>4.9241489328609118E-2</v>
-      </c>
-      <c r="DB14" s="6">
-        <f>BT14-CR14</f>
-        <v>5.5604921645824312E-4</v>
-      </c>
-      <c r="DC14" s="6">
-        <f>BU14-CS14</f>
-        <v>-2.2025800355871916E-6</v>
-      </c>
-      <c r="DD14" s="6">
-        <f>BV14-CT14</f>
-        <v>-4.5979846093502487E-11</v>
-      </c>
-      <c r="DE14" s="6">
-        <f>BW14-CU14</f>
-        <v>-1.1453594470400884E-6</v>
-      </c>
-      <c r="DF14" s="6">
-        <f>BX14-CV14</f>
-        <v>-1.9927723948243109E-11</v>
-      </c>
-      <c r="DG14" s="6">
-        <f>BY14-CW14</f>
-        <v>-7.8528890016887898E-5</v>
-      </c>
-      <c r="DH14" s="6">
-        <f>BZ14-CX14</f>
-        <v>-2.8651255688836979E-8</v>
-      </c>
-      <c r="DI14" s="6">
-        <f>CA14-CY14</f>
-        <v>-1.899690695196606E-16</v>
-      </c>
-      <c r="DJ14" s="6">
-        <f>CB14-CZ14</f>
-        <v>-6.5381064932003232E-8</v>
-      </c>
-      <c r="DK14" s="6">
-        <f>CC14-DA14</f>
-        <v>-2.2740447936019093E-4</v>
-      </c>
     </row>
-    <row r="15" spans="1:115" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>80</v>
       </c>
@@ -4607,168 +3101,8 @@
       <c r="BS15" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
-      <c r="BT15" s="3">
-        <f t="shared" si="1"/>
-        <v>0.6114651413934804</v>
-      </c>
-      <c r="BU15" s="3">
-        <f t="shared" si="2"/>
-        <v>5.3358504969929128E-4</v>
-      </c>
-      <c r="BV15" s="3">
-        <f t="shared" si="3"/>
-        <v>1.0677126048493025E-7</v>
-      </c>
-      <c r="BW15" s="3">
-        <f t="shared" si="4"/>
-        <v>6.9255235093771328E-4</v>
-      </c>
-      <c r="BX15" s="3">
-        <f t="shared" si="5"/>
-        <v>5.8231076441440377E-8</v>
-      </c>
-      <c r="BY15" s="3">
-        <f t="shared" si="6"/>
-        <v>5.5741374022792847E-2</v>
-      </c>
-      <c r="BZ15" s="3">
-        <f t="shared" si="7"/>
-        <v>4.1911254676097332E-4</v>
-      </c>
-      <c r="CA15" s="3">
-        <f t="shared" si="8"/>
-        <v>1.2382070957520571E-10</v>
-      </c>
-      <c r="CB15" s="3">
-        <f t="shared" si="9"/>
-        <v>5.8425948790276207E-5</v>
-      </c>
-      <c r="CC15" s="3">
-        <f t="shared" si="10"/>
-        <v>0.33162334243536223</v>
-      </c>
-      <c r="CD15" s="3">
-        <f t="shared" si="11"/>
-        <v>5.7738723632085962E-12</v>
-      </c>
-      <c r="CF15">
-        <v>9</v>
-      </c>
-      <c r="CG15" s="4">
-        <v>2.5689859999999998E-7</v>
-      </c>
-      <c r="CH15" s="4">
-        <v>2.2640890000000001E-10</v>
-      </c>
-      <c r="CI15" s="4">
-        <v>4.517448E-14</v>
-      </c>
-      <c r="CJ15" s="4">
-        <v>2.9453310000000002E-10</v>
-      </c>
-      <c r="CK15" s="4">
-        <v>2.5069000000000001E-14</v>
-      </c>
-      <c r="CL15" s="4">
-        <v>2.3457089999999998E-8</v>
-      </c>
-      <c r="CM15" s="4">
-        <v>1.7698249999999999E-10</v>
-      </c>
-      <c r="CN15" s="4">
-        <v>5.2557960000000001E-17</v>
-      </c>
-      <c r="CO15" s="4">
-        <v>2.4581849999999999E-11</v>
-      </c>
-      <c r="CP15" s="4">
-        <v>1.400394E-7</v>
-      </c>
-      <c r="CQ15" s="4">
-        <v>4.2111770000000002E-7</v>
-      </c>
-      <c r="CR15" s="3">
-        <f>CG15/$CQ15</f>
-        <v>0.61003990095880545</v>
-      </c>
-      <c r="CS15" s="3">
-        <f t="shared" si="0"/>
-        <v>5.3763805225949892E-4</v>
-      </c>
-      <c r="CT15" s="3">
-        <f t="shared" si="0"/>
-        <v>1.0727281232776489E-7</v>
-      </c>
-      <c r="CU15" s="3">
-        <f t="shared" si="0"/>
-        <v>6.9940802773191442E-4</v>
-      </c>
-      <c r="CV15" s="3">
-        <f t="shared" si="0"/>
-        <v>5.9529675432782806E-8</v>
-      </c>
-      <c r="CW15" s="3">
-        <f t="shared" si="0"/>
-        <v>5.5701980705156771E-2</v>
-      </c>
-      <c r="CX15" s="3">
-        <f t="shared" si="0"/>
-        <v>4.2026849025818665E-4</v>
-      </c>
-      <c r="CY15" s="3">
-        <f t="shared" si="0"/>
-        <v>1.2480586781320282E-10</v>
-      </c>
-      <c r="CZ15" s="3">
-        <f t="shared" si="0"/>
-        <v>5.8372872952146153E-5</v>
-      </c>
-      <c r="DA15" s="3">
-        <f t="shared" si="0"/>
-        <v>0.33254218476212227</v>
-      </c>
-      <c r="DB15" s="6">
-        <f>BT15-CR15</f>
-        <v>1.425240434674957E-3</v>
-      </c>
-      <c r="DC15" s="6">
-        <f>BU15-CS15</f>
-        <v>-4.0530025602076442E-6</v>
-      </c>
-      <c r="DD15" s="6">
-        <f>BV15-CT15</f>
-        <v>-5.0155184283464096E-10</v>
-      </c>
-      <c r="DE15" s="6">
-        <f>BW15-CU15</f>
-        <v>-6.8556767942011413E-6</v>
-      </c>
-      <c r="DF15" s="6">
-        <f>BX15-CV15</f>
-        <v>-1.2985989913424284E-9</v>
-      </c>
-      <c r="DG15" s="6">
-        <f>BY15-CW15</f>
-        <v>3.9393317636075842E-5</v>
-      </c>
-      <c r="DH15" s="6">
-        <f>BZ15-CX15</f>
-        <v>-1.1559434972133252E-6</v>
-      </c>
-      <c r="DI15" s="6">
-        <f>CA15-CY15</f>
-        <v>-9.8515823799710163E-13</v>
-      </c>
-      <c r="DJ15" s="6">
-        <f>CB15-CZ15</f>
-        <v>5.3075838130054484E-8</v>
-      </c>
-      <c r="DK15" s="6">
-        <f>CC15-DA15</f>
-        <v>-9.1884232676003874E-4</v>
-      </c>
     </row>
-    <row r="16" spans="1:115" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>80</v>
       </c>
@@ -4982,168 +3316,8 @@
       <c r="BS16" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
-      <c r="BT16" s="3">
-        <f t="shared" si="1"/>
-        <v>0.19532146625296631</v>
-      </c>
-      <c r="BU16" s="3">
-        <f t="shared" si="2"/>
-        <v>3.2333313023847905E-4</v>
-      </c>
-      <c r="BV16" s="3">
-        <f t="shared" si="3"/>
-        <v>6.5216762857368681E-7</v>
-      </c>
-      <c r="BW16" s="3">
-        <f t="shared" si="4"/>
-        <v>2.2057491114166492E-3</v>
-      </c>
-      <c r="BX16" s="3">
-        <f t="shared" si="5"/>
-        <v>1.8525331153051527E-6</v>
-      </c>
-      <c r="BY16" s="3">
-        <f t="shared" si="6"/>
-        <v>1.7674566791994761E-2</v>
-      </c>
-      <c r="BZ16" s="3">
-        <f t="shared" si="7"/>
-        <v>9.783402619910328E-3</v>
-      </c>
-      <c r="CA16" s="3">
-        <f t="shared" si="8"/>
-        <v>2.1294594625435438E-7</v>
-      </c>
-      <c r="CB16" s="3">
-        <f t="shared" si="9"/>
-        <v>1.8587340142808678E-5</v>
-      </c>
-      <c r="CC16" s="3">
-        <f t="shared" si="10"/>
-        <v>0.77499363393403031</v>
-      </c>
-      <c r="CD16" s="3">
-        <f t="shared" si="11"/>
-        <v>1.1834015311975623E-11</v>
-      </c>
-      <c r="CF16">
-        <v>10</v>
-      </c>
-      <c r="CG16" s="4">
-        <v>8.1924760000000004E-8</v>
-      </c>
-      <c r="CH16" s="4">
-        <v>1.384218E-10</v>
-      </c>
-      <c r="CI16" s="4">
-        <v>2.7618720000000001E-13</v>
-      </c>
-      <c r="CJ16" s="4">
-        <v>9.3650600000000007E-10</v>
-      </c>
-      <c r="CK16" s="4">
-        <v>7.9619369999999998E-13</v>
-      </c>
-      <c r="CL16" s="4">
-        <v>7.4253400000000003E-9</v>
-      </c>
-      <c r="CM16" s="4">
-        <v>4.122489E-9</v>
-      </c>
-      <c r="CN16" s="4">
-        <v>9.0153799999999997E-14</v>
-      </c>
-      <c r="CO16" s="4">
-        <v>7.807246E-12</v>
-      </c>
-      <c r="CP16" s="4">
-        <v>3.2656840000000001E-7</v>
-      </c>
-      <c r="CQ16" s="4">
-        <v>4.2112489999999999E-7</v>
-      </c>
-      <c r="CR16" s="3">
-        <f>CG16/$CQ16</f>
-        <v>0.19453791499861445</v>
-      </c>
-      <c r="CS16" s="3">
-        <f t="shared" si="0"/>
-        <v>3.2869535855039683E-4</v>
-      </c>
-      <c r="CT16" s="3">
-        <f t="shared" si="0"/>
-        <v>6.5583203462915636E-7</v>
-      </c>
-      <c r="CU16" s="3">
-        <f t="shared" si="0"/>
-        <v>2.2238200590846092E-3</v>
-      </c>
-      <c r="CV16" s="3">
-        <f t="shared" si="0"/>
-        <v>1.8906355335436113E-6</v>
-      </c>
-      <c r="CW16" s="3">
-        <f t="shared" si="0"/>
-        <v>1.7632156160796952E-2</v>
-      </c>
-      <c r="CX16" s="3">
-        <f t="shared" si="0"/>
-        <v>9.7892311758340581E-3</v>
-      </c>
-      <c r="CY16" s="3">
-        <f t="shared" si="0"/>
-        <v>2.1407853109611898E-7</v>
-      </c>
-      <c r="CZ16" s="3">
-        <f t="shared" si="0"/>
-        <v>1.8539027257709056E-5</v>
-      </c>
-      <c r="DA16" s="3">
-        <f t="shared" si="0"/>
-        <v>0.77546685080839439</v>
-      </c>
-      <c r="DB16" s="6">
-        <f>BT16-CR16</f>
-        <v>7.8355125435186634E-4</v>
-      </c>
-      <c r="DC16" s="6">
-        <f>BU16-CS16</f>
-        <v>-5.3622283119177864E-6</v>
-      </c>
-      <c r="DD16" s="6">
-        <f>BV16-CT16</f>
-        <v>-3.6644060554695566E-9</v>
-      </c>
-      <c r="DE16" s="6">
-        <f>BW16-CU16</f>
-        <v>-1.8070947667959969E-5</v>
-      </c>
-      <c r="DF16" s="6">
-        <f>BX16-CV16</f>
-        <v>-3.8102418238458608E-8</v>
-      </c>
-      <c r="DG16" s="6">
-        <f>BY16-CW16</f>
-        <v>4.2410631197808968E-5</v>
-      </c>
-      <c r="DH16" s="6">
-        <f>BZ16-CX16</f>
-        <v>-5.8285559237300499E-6</v>
-      </c>
-      <c r="DI16" s="6">
-        <f>CA16-CY16</f>
-        <v>-1.1325848417646015E-9</v>
-      </c>
-      <c r="DJ16" s="6">
-        <f>CB16-CZ16</f>
-        <v>4.8312885099621315E-8</v>
-      </c>
-      <c r="DK16" s="6">
-        <f>CC16-DA16</f>
-        <v>-4.7321687436407966E-4</v>
-      </c>
     </row>
-    <row r="17" spans="1:115" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>80</v>
       </c>
@@ -5357,168 +3531,8 @@
       <c r="BS17" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
-      <c r="BT17" s="3">
-        <f t="shared" si="1"/>
-        <v>7.5148835686522419E-2</v>
-      </c>
-      <c r="BU17" s="3">
-        <f t="shared" si="2"/>
-        <v>1.5239526833438102E-4</v>
-      </c>
-      <c r="BV17" s="3">
-        <f t="shared" si="3"/>
-        <v>3.093522137770054E-6</v>
-      </c>
-      <c r="BW17" s="3">
-        <f t="shared" si="4"/>
-        <v>8.4366176426719248E-3</v>
-      </c>
-      <c r="BX17" s="3">
-        <f t="shared" si="5"/>
-        <v>7.0694124593018056E-5</v>
-      </c>
-      <c r="BY17" s="3">
-        <f t="shared" si="6"/>
-        <v>6.6995995072972022E-3</v>
-      </c>
-      <c r="BZ17" s="3">
-        <f t="shared" si="7"/>
-        <v>0.10174599946830779</v>
-      </c>
-      <c r="CA17" s="3">
-        <f t="shared" si="8"/>
-        <v>6.0850219867813607E-5</v>
-      </c>
-      <c r="CB17" s="3">
-        <f t="shared" si="9"/>
-        <v>7.0930630605866916E-6</v>
-      </c>
-      <c r="CC17" s="3">
-        <f t="shared" si="10"/>
-        <v>0.80783079094514265</v>
-      </c>
-      <c r="CD17" s="3">
-        <f t="shared" si="11"/>
-        <v>1.7448890801369683E-11</v>
-      </c>
-      <c r="CF17">
-        <v>11</v>
-      </c>
-      <c r="CG17" s="4">
-        <v>3.1535550000000001E-8</v>
-      </c>
-      <c r="CH17" s="4">
-        <v>6.6069850000000002E-11</v>
-      </c>
-      <c r="CI17" s="4">
-        <v>1.318256E-12</v>
-      </c>
-      <c r="CJ17" s="4">
-        <v>3.5837110000000001E-9</v>
-      </c>
-      <c r="CK17" s="4">
-        <v>3.0397920000000001E-11</v>
-      </c>
-      <c r="CL17" s="4">
-        <v>2.8160079999999999E-9</v>
-      </c>
-      <c r="CM17" s="4">
-        <v>4.285105E-8</v>
-      </c>
-      <c r="CN17" s="4">
-        <v>2.572247E-11</v>
-      </c>
-      <c r="CO17" s="4">
-        <v>2.9807680000000001E-12</v>
-      </c>
-      <c r="CP17" s="4">
-        <v>3.4023070000000002E-7</v>
-      </c>
-      <c r="CQ17" s="4">
-        <v>4.2114350000000002E-7</v>
-      </c>
-      <c r="CR17" s="3">
-        <f>CG17/$CQ17</f>
-        <v>7.4880771043599151E-2</v>
-      </c>
-      <c r="CS17" s="3">
-        <f t="shared" si="0"/>
-        <v>1.5688203664546645E-4</v>
-      </c>
-      <c r="CT17" s="3">
-        <f t="shared" si="0"/>
-        <v>3.1301824674962331E-6</v>
-      </c>
-      <c r="CU17" s="3">
-        <f t="shared" si="0"/>
-        <v>8.5094771734575032E-3</v>
-      </c>
-      <c r="CV17" s="3">
-        <f t="shared" si="0"/>
-        <v>7.2179482765375691E-5</v>
-      </c>
-      <c r="CW17" s="3">
-        <f t="shared" si="0"/>
-        <v>6.686575953327072E-3</v>
-      </c>
-      <c r="CX17" s="3">
-        <f t="shared" si="0"/>
-        <v>0.10174928498243473</v>
-      </c>
-      <c r="CY17" s="3">
-        <f t="shared" si="0"/>
-        <v>6.1077684922122746E-5</v>
-      </c>
-      <c r="CZ17" s="3">
-        <f t="shared" si="0"/>
-        <v>7.0777965230378721E-6</v>
-      </c>
-      <c r="DA17" s="3">
-        <f t="shared" si="0"/>
-        <v>0.80787356328662319</v>
-      </c>
-      <c r="DB17" s="6">
-        <f>BT17-CR17</f>
-        <v>2.6806464292326859E-4</v>
-      </c>
-      <c r="DC17" s="6">
-        <f>BU17-CS17</f>
-        <v>-4.4867683110854316E-6</v>
-      </c>
-      <c r="DD17" s="6">
-        <f>BV17-CT17</f>
-        <v>-3.6660329726179121E-8</v>
-      </c>
-      <c r="DE17" s="6">
-        <f>BW17-CU17</f>
-        <v>-7.2859530785578455E-5</v>
-      </c>
-      <c r="DF17" s="6">
-        <f>BX17-CV17</f>
-        <v>-1.4853581723576348E-6</v>
-      </c>
-      <c r="DG17" s="6">
-        <f>BY17-CW17</f>
-        <v>1.3023553970130212E-5</v>
-      </c>
-      <c r="DH17" s="6">
-        <f>BZ17-CX17</f>
-        <v>-3.2855141269411137E-6</v>
-      </c>
-      <c r="DI17" s="6">
-        <f>CA17-CY17</f>
-        <v>-2.2746505430913867E-7</v>
-      </c>
-      <c r="DJ17" s="6">
-        <f>CB17-CZ17</f>
-        <v>1.5266537548819475E-8</v>
-      </c>
-      <c r="DK17" s="6">
-        <f>CC17-DA17</f>
-        <v>-4.277234148053477E-5</v>
-      </c>
     </row>
-    <row r="18" spans="1:115" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>80</v>
       </c>
@@ -5732,168 +3746,8 @@
       <c r="BS18" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
-      <c r="BT18" s="3">
-        <f t="shared" si="1"/>
-        <v>3.1722127395829192E-2</v>
-      </c>
-      <c r="BU18" s="3">
-        <f t="shared" si="2"/>
-        <v>6.8705796427266761E-5</v>
-      </c>
-      <c r="BV18" s="3">
-        <f t="shared" si="3"/>
-        <v>1.3974791166103768E-5</v>
-      </c>
-      <c r="BW18" s="3">
-        <f t="shared" si="4"/>
-        <v>3.5543962536418859E-2</v>
-      </c>
-      <c r="BX18" s="3">
-        <f t="shared" si="5"/>
-        <v>2.9761297771900533E-3</v>
-      </c>
-      <c r="BY18" s="3">
-        <f t="shared" si="6"/>
-        <v>2.8146768512023784E-3</v>
-      </c>
-      <c r="BZ18" s="3">
-        <f t="shared" si="7"/>
-        <v>0.51446030034873147</v>
-      </c>
-      <c r="CA18" s="3">
-        <f t="shared" si="8"/>
-        <v>3.705388269957372E-3</v>
-      </c>
-      <c r="CB18" s="3">
-        <f t="shared" si="9"/>
-        <v>2.9860827921151278E-6</v>
-      </c>
-      <c r="CC18" s="3">
-        <f t="shared" si="10"/>
-        <v>0.40877419029141365</v>
-      </c>
-      <c r="CD18" s="3">
-        <f t="shared" si="11"/>
-        <v>2.4090016455991792E-11</v>
-      </c>
-      <c r="CF18">
-        <v>12</v>
-      </c>
-      <c r="CG18" s="4">
-        <v>1.331123E-8</v>
-      </c>
-      <c r="CH18" s="4">
-        <v>2.9947980000000001E-11</v>
-      </c>
-      <c r="CI18" s="4">
-        <v>5.9753539999999999E-12</v>
-      </c>
-      <c r="CJ18" s="4">
-        <v>1.5097640000000002E-8</v>
-      </c>
-      <c r="CK18" s="4">
-        <v>1.2796509999999999E-9</v>
-      </c>
-      <c r="CL18" s="4">
-        <v>1.1830270000000001E-9</v>
-      </c>
-      <c r="CM18" s="4">
-        <v>2.165803E-7</v>
-      </c>
-      <c r="CN18" s="4">
-        <v>1.565125E-9</v>
-      </c>
-      <c r="CO18" s="4">
-        <v>1.2548049999999999E-12</v>
-      </c>
-      <c r="CP18" s="4">
-        <v>1.720914E-7</v>
-      </c>
-      <c r="CQ18" s="4">
-        <v>4.2114550000000002E-7</v>
-      </c>
-      <c r="CR18" s="3">
-        <f>CG18/$CQ18</f>
-        <v>3.1607199886974927E-2</v>
-      </c>
-      <c r="CS18" s="3">
-        <f t="shared" si="0"/>
-        <v>7.1110768131204058E-5</v>
-      </c>
-      <c r="CT18" s="3">
-        <f t="shared" si="0"/>
-        <v>1.4188336335067096E-5</v>
-      </c>
-      <c r="CU18" s="3">
-        <f t="shared" si="0"/>
-        <v>3.5848988057571557E-2</v>
-      </c>
-      <c r="CV18" s="3">
-        <f t="shared" si="0"/>
-        <v>3.0385009456351782E-3</v>
-      </c>
-      <c r="CW18" s="3">
-        <f t="shared" si="0"/>
-        <v>2.8090695495974669E-3</v>
-      </c>
-      <c r="CX18" s="3">
-        <f t="shared" si="0"/>
-        <v>0.51426478497336425</v>
-      </c>
-      <c r="CY18" s="3">
-        <f t="shared" si="0"/>
-        <v>3.7163521870707391E-3</v>
-      </c>
-      <c r="CZ18" s="3">
-        <f t="shared" si="0"/>
-        <v>2.9795047079928432E-6</v>
-      </c>
-      <c r="DA18" s="3">
-        <f t="shared" si="0"/>
-        <v>0.40862694721895398</v>
-      </c>
-      <c r="DB18" s="6">
-        <f>BT18-CR18</f>
-        <v>1.1492750885426506E-4</v>
-      </c>
-      <c r="DC18" s="6">
-        <f>BU18-CS18</f>
-        <v>-2.4049717039372972E-6</v>
-      </c>
-      <c r="DD18" s="6">
-        <f>BV18-CT18</f>
-        <v>-2.1354516896332729E-7</v>
-      </c>
-      <c r="DE18" s="6">
-        <f>BW18-CU18</f>
-        <v>-3.0502552115269782E-4</v>
-      </c>
-      <c r="DF18" s="6">
-        <f>BX18-CV18</f>
-        <v>-6.2371168445124903E-5</v>
-      </c>
-      <c r="DG18" s="6">
-        <f>BY18-CW18</f>
-        <v>5.6073016049115396E-6</v>
-      </c>
-      <c r="DH18" s="6">
-        <f>BZ18-CX18</f>
-        <v>1.9551537536721675E-4</v>
-      </c>
-      <c r="DI18" s="6">
-        <f>CA18-CY18</f>
-        <v>-1.0963917113367139E-5</v>
-      </c>
-      <c r="DJ18" s="6">
-        <f>CB18-CZ18</f>
-        <v>6.5780841222846458E-9</v>
-      </c>
-      <c r="DK18" s="6">
-        <f>CC18-DA18</f>
-        <v>1.472430724596685E-4</v>
-      </c>
     </row>
-    <row r="19" spans="1:115" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>80</v>
       </c>
@@ -6107,168 +3961,8 @@
       <c r="BS19" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
-      <c r="BT19" s="3">
-        <f t="shared" si="1"/>
-        <v>4.968213686781995E-3</v>
-      </c>
-      <c r="BU19" s="3">
-        <f t="shared" si="2"/>
-        <v>1.132265517580876E-5</v>
-      </c>
-      <c r="BV19" s="3">
-        <f t="shared" si="3"/>
-        <v>2.3034712744543266E-5</v>
-      </c>
-      <c r="BW19" s="3">
-        <f t="shared" si="4"/>
-        <v>5.5625036824646111E-2</v>
-      </c>
-      <c r="BX19" s="3">
-        <f t="shared" si="5"/>
-        <v>4.6561390472990773E-2</v>
-      </c>
-      <c r="BY19" s="3">
-        <f t="shared" si="6"/>
-        <v>4.406603560893505E-4</v>
-      </c>
-      <c r="BZ19" s="3">
-        <f t="shared" si="7"/>
-        <v>0.77664324309841171</v>
-      </c>
-      <c r="CA19" s="3">
-        <f t="shared" si="8"/>
-        <v>5.4033541423095327E-2</v>
-      </c>
-      <c r="CB19" s="3">
-        <f t="shared" si="9"/>
-        <v>4.671717786704015E-7</v>
-      </c>
-      <c r="CC19" s="3">
-        <f t="shared" si="10"/>
-        <v>6.1728192537371156E-2</v>
-      </c>
-      <c r="CD19" s="3">
-        <f t="shared" si="11"/>
-        <v>2.8945620639398392E-11</v>
-      </c>
-      <c r="CF19">
-        <v>13</v>
-      </c>
-      <c r="CG19" s="4">
-        <v>2.082528E-9</v>
-      </c>
-      <c r="CH19" s="4">
-        <v>4.9424260000000001E-12</v>
-      </c>
-      <c r="CI19" s="4">
-        <v>9.861365E-12</v>
-      </c>
-      <c r="CJ19" s="4">
-        <v>2.3601969999999999E-8</v>
-      </c>
-      <c r="CK19" s="4">
-        <v>1.999866E-8</v>
-      </c>
-      <c r="CL19" s="4">
-        <v>1.850158E-10</v>
-      </c>
-      <c r="CM19" s="4">
-        <v>3.2651739999999998E-7</v>
-      </c>
-      <c r="CN19" s="4">
-        <v>2.2786660000000002E-8</v>
-      </c>
-      <c r="CO19" s="4">
-        <v>1.9610300000000001E-13</v>
-      </c>
-      <c r="CP19" s="4">
-        <v>2.5952339999999999E-8</v>
-      </c>
-      <c r="CQ19" s="4">
-        <v>4.211396E-7</v>
-      </c>
-      <c r="CR19" s="3">
-        <f>CG19/$CQ19</f>
-        <v>4.9449826138411113E-3</v>
-      </c>
-      <c r="CS19" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1735837712720437E-5</v>
-      </c>
-      <c r="CT19" s="3">
-        <f t="shared" si="0"/>
-        <v>2.3415905319756206E-5</v>
-      </c>
-      <c r="CU19" s="3">
-        <f t="shared" si="0"/>
-        <v>5.6043103047065626E-2</v>
-      </c>
-      <c r="CV19" s="3">
-        <f t="shared" si="0"/>
-        <v>4.748700905827901E-2</v>
-      </c>
-      <c r="CW19" s="3">
-        <f t="shared" si="0"/>
-        <v>4.3932178308570365E-4</v>
-      </c>
-      <c r="CX19" s="3">
-        <f t="shared" si="0"/>
-        <v>0.77531868292604156</v>
-      </c>
-      <c r="CY19" s="3">
-        <f t="shared" si="0"/>
-        <v>5.4107141669888087E-2</v>
-      </c>
-      <c r="CZ19" s="3">
-        <f t="shared" si="0"/>
-        <v>4.6564844531362047E-7</v>
-      </c>
-      <c r="DA19" s="3">
-        <f t="shared" si="0"/>
-        <v>6.1624079046472949E-2</v>
-      </c>
-      <c r="DB19" s="6">
-        <f>BT19-CR19</f>
-        <v>2.3231072940883661E-5</v>
-      </c>
-      <c r="DC19" s="6">
-        <f>BU19-CS19</f>
-        <v>-4.1318253691167669E-7</v>
-      </c>
-      <c r="DD19" s="6">
-        <f>BV19-CT19</f>
-        <v>-3.8119257521293954E-7</v>
-      </c>
-      <c r="DE19" s="6">
-        <f>BW19-CU19</f>
-        <v>-4.1806622241951502E-4</v>
-      </c>
-      <c r="DF19" s="6">
-        <f>BX19-CV19</f>
-        <v>-9.2561858528823759E-4</v>
-      </c>
-      <c r="DG19" s="6">
-        <f>BY19-CW19</f>
-        <v>1.3385730036468433E-6</v>
-      </c>
-      <c r="DH19" s="6">
-        <f>BZ19-CX19</f>
-        <v>1.3245601723701483E-3</v>
-      </c>
-      <c r="DI19" s="6">
-        <f>CA19-CY19</f>
-        <v>-7.3600246792759894E-5</v>
-      </c>
-      <c r="DJ19" s="6">
-        <f>CB19-CZ19</f>
-        <v>1.5233333567810209E-9</v>
-      </c>
-      <c r="DK19" s="6">
-        <f>CC19-DA19</f>
-        <v>1.0411349089820693E-4</v>
-      </c>
     </row>
-    <row r="20" spans="1:115" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>80</v>
       </c>
@@ -6482,168 +4176,8 @@
       <c r="BS20" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
-      <c r="BT20" s="3">
-        <f t="shared" si="1"/>
-        <v>3.9431572300227855E-4</v>
-      </c>
-      <c r="BU20" s="3">
-        <f t="shared" si="2"/>
-        <v>9.6391660117027053E-7</v>
-      </c>
-      <c r="BV20" s="3">
-        <f t="shared" si="3"/>
-        <v>1.9598196537786213E-5</v>
-      </c>
-      <c r="BW20" s="3">
-        <f t="shared" si="4"/>
-        <v>4.3960638241223184E-2</v>
-      </c>
-      <c r="BX20" s="3">
-        <f t="shared" si="5"/>
-        <v>0.3673634120304845</v>
-      </c>
-      <c r="BY20" s="3">
-        <f t="shared" si="6"/>
-        <v>3.4880175683447714E-5</v>
-      </c>
-      <c r="BZ20" s="3">
-        <f t="shared" si="7"/>
-        <v>0.40120547271777124</v>
-      </c>
-      <c r="CA20" s="3">
-        <f t="shared" si="8"/>
-        <v>0.18384768266762361</v>
-      </c>
-      <c r="CB20" s="3">
-        <f t="shared" si="9"/>
-        <v>3.6859324421024043E-8</v>
-      </c>
-      <c r="CC20" s="3">
-        <f t="shared" si="10"/>
-        <v>3.1941296785523072E-3</v>
-      </c>
-      <c r="CD20" s="3">
-        <f t="shared" si="11"/>
-        <v>3.4661083839816925E-11</v>
-      </c>
-      <c r="CF20">
-        <v>14</v>
-      </c>
-      <c r="CG20" s="4">
-        <v>1.6426820000000001E-10</v>
-      </c>
-      <c r="CH20" s="4">
-        <v>4.192708E-13</v>
-      </c>
-      <c r="CI20" s="4">
-        <v>8.3655139999999994E-12</v>
-      </c>
-      <c r="CJ20" s="4">
-        <v>1.853774E-8</v>
-      </c>
-      <c r="CK20" s="4">
-        <v>1.5681399999999999E-7</v>
-      </c>
-      <c r="CL20" s="4">
-        <v>1.455493E-11</v>
-      </c>
-      <c r="CM20" s="4">
-        <v>1.6742049999999999E-7</v>
-      </c>
-      <c r="CN20" s="4">
-        <v>7.6857180000000002E-8</v>
-      </c>
-      <c r="CO20" s="4">
-        <v>1.5376799999999999E-14</v>
-      </c>
-      <c r="CP20" s="4">
-        <v>1.332918E-9</v>
-      </c>
-      <c r="CQ20" s="4">
-        <v>4.2114989999999999E-7</v>
-      </c>
-      <c r="CR20" s="3">
-        <f>CG20/$CQ20</f>
-        <v>3.900468692976064E-4</v>
-      </c>
-      <c r="CS20" s="3">
-        <f t="shared" si="0"/>
-        <v>9.9553816823890967E-7</v>
-      </c>
-      <c r="CT20" s="3">
-        <f t="shared" si="0"/>
-        <v>1.9863507031581867E-5</v>
-      </c>
-      <c r="CU20" s="3">
-        <f t="shared" si="0"/>
-        <v>4.401696403109677E-2</v>
-      </c>
-      <c r="CV20" s="3">
-        <f t="shared" si="0"/>
-        <v>0.37234723313480544</v>
-      </c>
-      <c r="CW20" s="3">
-        <f t="shared" si="0"/>
-        <v>3.4559974963783683E-5</v>
-      </c>
-      <c r="CX20" s="3">
-        <f t="shared" si="0"/>
-        <v>0.39753185267288438</v>
-      </c>
-      <c r="CY20" s="3">
-        <f t="shared" si="0"/>
-        <v>0.18249364418702224</v>
-      </c>
-      <c r="CZ20" s="3">
-        <f t="shared" si="0"/>
-        <v>3.6511465395100412E-8</v>
-      </c>
-      <c r="DA20" s="3">
-        <f t="shared" si="0"/>
-        <v>3.1649491071943743E-3</v>
-      </c>
-      <c r="DB20" s="6">
-        <f>BT20-CR20</f>
-        <v>4.2688537046721474E-6</v>
-      </c>
-      <c r="DC20" s="6">
-        <f>BU20-CS20</f>
-        <v>-3.1621567068639137E-8</v>
-      </c>
-      <c r="DD20" s="6">
-        <f>BV20-CT20</f>
-        <v>-2.6531049379565413E-7</v>
-      </c>
-      <c r="DE20" s="6">
-        <f>BW20-CU20</f>
-        <v>-5.6325789873586107E-5</v>
-      </c>
-      <c r="DF20" s="6">
-        <f>BX20-CV20</f>
-        <v>-4.9838211043209402E-3</v>
-      </c>
-      <c r="DG20" s="6">
-        <f>BY20-CW20</f>
-        <v>3.2020071966403114E-7</v>
-      </c>
-      <c r="DH20" s="6">
-        <f>BZ20-CX20</f>
-        <v>3.6736200448868606E-3</v>
-      </c>
-      <c r="DI20" s="6">
-        <f>CA20-CY20</f>
-        <v>1.3540384806013661E-3</v>
-      </c>
-      <c r="DJ20" s="6">
-        <f>CB20-CZ20</f>
-        <v>3.4785902592363088E-10</v>
-      </c>
-      <c r="DK20" s="6">
-        <f>CC20-DA20</f>
-        <v>2.9180571357932932E-5</v>
-      </c>
     </row>
-    <row r="21" spans="1:115" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>80</v>
       </c>
@@ -6857,168 +4391,8 @@
       <c r="BS21" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
-      <c r="BT21" s="3">
-        <f t="shared" si="1"/>
-        <v>6.9453771292575614E-2</v>
-      </c>
-      <c r="BU21" s="3">
-        <f t="shared" si="2"/>
-        <v>1.4021212499956101E-4</v>
-      </c>
-      <c r="BV21" s="3">
-        <f t="shared" si="3"/>
-        <v>1.0606528947723869E-5</v>
-      </c>
-      <c r="BW21" s="3">
-        <f t="shared" si="4"/>
-        <v>8.7506885323007065E-3</v>
-      </c>
-      <c r="BX21" s="3">
-        <f t="shared" si="5"/>
-        <v>8.2188150397384752E-5</v>
-      </c>
-      <c r="BY21" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2460151472550533E-3</v>
-      </c>
-      <c r="BZ21" s="3">
-        <f t="shared" si="7"/>
-        <v>0.29209312672071913</v>
-      </c>
-      <c r="CA21" s="3">
-        <f t="shared" si="8"/>
-        <v>5.3996239859850712E-4</v>
-      </c>
-      <c r="CB21" s="3">
-        <f t="shared" si="9"/>
-        <v>5.6914655636681406E-6</v>
-      </c>
-      <c r="CC21" s="3">
-        <f t="shared" si="10"/>
-        <v>0.6238278964014129</v>
-      </c>
-      <c r="CD21" s="3">
-        <f t="shared" si="11"/>
-        <v>2.2593935419713271E-11</v>
-      </c>
-      <c r="CF21">
-        <v>15</v>
-      </c>
-      <c r="CG21" s="4">
-        <v>2.9141809999999999E-8</v>
-      </c>
-      <c r="CH21" s="4">
-        <v>6.1044529999999995E-11</v>
-      </c>
-      <c r="CI21" s="4">
-        <v>4.5252560000000002E-12</v>
-      </c>
-      <c r="CJ21" s="4">
-        <v>3.7213900000000001E-9</v>
-      </c>
-      <c r="CK21" s="4">
-        <v>3.5426179999999999E-11</v>
-      </c>
-      <c r="CL21" s="4">
-        <v>2.2052549999999999E-9</v>
-      </c>
-      <c r="CM21" s="4">
-        <v>1.230146E-7</v>
-      </c>
-      <c r="CN21" s="4">
-        <v>2.282729E-10</v>
-      </c>
-      <c r="CO21" s="4">
-        <v>2.3918159999999999E-12</v>
-      </c>
-      <c r="CP21" s="4">
-        <v>2.6272979999999999E-7</v>
-      </c>
-      <c r="CQ21" s="4">
-        <v>4.2114449999999999E-7</v>
-      </c>
-      <c r="CR21" s="3">
-        <f>CG21/$CQ21</f>
-        <v>6.9196700894823507E-2</v>
-      </c>
-      <c r="CS21" s="3">
-        <f t="shared" si="0"/>
-        <v>1.4494913266111748E-4</v>
-      </c>
-      <c r="CT21" s="3">
-        <f t="shared" si="0"/>
-        <v>1.0745138545083695E-5</v>
-      </c>
-      <c r="CU21" s="3">
-        <f t="shared" si="0"/>
-        <v>8.8363732638085026E-3</v>
-      </c>
-      <c r="CV21" s="3">
-        <f t="shared" si="0"/>
-        <v>8.4118823824126874E-5</v>
-      </c>
-      <c r="CW21" s="3">
-        <f t="shared" si="0"/>
-        <v>5.2363381214761201E-3</v>
-      </c>
-      <c r="CX21" s="3">
-        <f t="shared" si="0"/>
-        <v>0.29209594331636768</v>
-      </c>
-      <c r="CY21" s="3">
-        <f t="shared" si="0"/>
-        <v>5.4202987335700691E-4</v>
-      </c>
-      <c r="CZ21" s="3">
-        <f t="shared" si="0"/>
-        <v>5.6793238425291083E-6</v>
-      </c>
-      <c r="DA21" s="3">
-        <f t="shared" si="0"/>
-        <v>0.62384715934791979</v>
-      </c>
-      <c r="DB21" s="6">
-        <f>BT21-CR21</f>
-        <v>2.5707039775210716E-4</v>
-      </c>
-      <c r="DC21" s="6">
-        <f>BU21-CS21</f>
-        <v>-4.7370076615564671E-6</v>
-      </c>
-      <c r="DD21" s="6">
-        <f>BV21-CT21</f>
-        <v>-1.3860959735982533E-7</v>
-      </c>
-      <c r="DE21" s="6">
-        <f>BW21-CU21</f>
-        <v>-8.5684731507796111E-5</v>
-      </c>
-      <c r="DF21" s="6">
-        <f>BX21-CV21</f>
-        <v>-1.9306734267421219E-6</v>
-      </c>
-      <c r="DG21" s="6">
-        <f>BY21-CW21</f>
-        <v>9.6770257789332778E-6</v>
-      </c>
-      <c r="DH21" s="6">
-        <f>BZ21-CX21</f>
-        <v>-2.8165956485470822E-6</v>
-      </c>
-      <c r="DI21" s="6">
-        <f>CA21-CY21</f>
-        <v>-2.0674747584997853E-6</v>
-      </c>
-      <c r="DJ21" s="6">
-        <f>CB21-CZ21</f>
-        <v>1.2141721139032303E-8</v>
-      </c>
-      <c r="DK21" s="6">
-        <f>CC21-DA21</f>
-        <v>-1.9262946506892753E-5</v>
-      </c>
     </row>
-    <row r="22" spans="1:115" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>80</v>
       </c>
@@ -7232,168 +4606,8 @@
       <c r="BS22" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
-      <c r="BT22" s="3">
-        <f t="shared" si="1"/>
-        <v>6.3283909399593427E-2</v>
-      </c>
-      <c r="BU22" s="3">
-        <f t="shared" si="2"/>
-        <v>1.2943466781993208E-4</v>
-      </c>
-      <c r="BV22" s="3">
-        <f t="shared" si="3"/>
-        <v>9.7871492783989763E-6</v>
-      </c>
-      <c r="BW22" s="3">
-        <f t="shared" si="4"/>
-        <v>1.135892485666481E-2</v>
-      </c>
-      <c r="BX22" s="3">
-        <f t="shared" si="5"/>
-        <v>1.5208218982191415E-4</v>
-      </c>
-      <c r="BY22" s="3">
-        <f t="shared" si="6"/>
-        <v>5.0175520689528805E-3</v>
-      </c>
-      <c r="BZ22" s="3">
-        <f t="shared" si="7"/>
-        <v>0.29319167382687389</v>
-      </c>
-      <c r="CA22" s="3">
-        <f t="shared" si="8"/>
-        <v>5.9866598058371813E-4</v>
-      </c>
-      <c r="CB22" s="3">
-        <f t="shared" si="9"/>
-        <v>5.4041489028590746E-6</v>
-      </c>
-      <c r="CC22" s="3">
-        <f t="shared" si="10"/>
-        <v>0.62639193787772474</v>
-      </c>
-      <c r="CD22" s="3">
-        <f t="shared" si="11"/>
-        <v>2.2239608816693906E-11</v>
-      </c>
-      <c r="CF22">
-        <v>16</v>
-      </c>
-      <c r="CG22" s="4">
-        <v>2.6554979999999999E-8</v>
-      </c>
-      <c r="CH22" s="4">
-        <v>5.634725E-11</v>
-      </c>
-      <c r="CI22" s="4">
-        <v>4.1770430000000003E-12</v>
-      </c>
-      <c r="CJ22" s="4">
-        <v>4.8290779999999998E-9</v>
-      </c>
-      <c r="CK22" s="4">
-        <v>6.5507329999999999E-11</v>
-      </c>
-      <c r="CL22" s="4">
-        <v>2.1092239999999999E-9</v>
-      </c>
-      <c r="CM22" s="4">
-        <v>1.2347189999999999E-7</v>
-      </c>
-      <c r="CN22" s="4">
-        <v>2.530496E-10</v>
-      </c>
-      <c r="CO22" s="4">
-        <v>2.2711349999999999E-12</v>
-      </c>
-      <c r="CP22" s="4">
-        <v>2.6379829999999999E-7</v>
-      </c>
-      <c r="CQ22" s="4">
-        <v>4.2114490000000001E-7</v>
-      </c>
-      <c r="CR22" s="3">
-        <f>CG22/$CQ22</f>
-        <v>6.3054259947110836E-2</v>
-      </c>
-      <c r="CS22" s="3">
-        <f t="shared" si="0"/>
-        <v>1.3379539916071642E-4</v>
-      </c>
-      <c r="CT22" s="3">
-        <f t="shared" si="0"/>
-        <v>9.918303652733299E-6</v>
-      </c>
-      <c r="CU22" s="3">
-        <f t="shared" si="0"/>
-        <v>1.146654749944734E-2</v>
-      </c>
-      <c r="CV22" s="3">
-        <f t="shared" si="0"/>
-        <v>1.555458228272502E-4</v>
-      </c>
-      <c r="CW22" s="3">
-        <f t="shared" si="0"/>
-        <v>5.0083094915787888E-3</v>
-      </c>
-      <c r="CX22" s="3">
-        <f t="shared" si="0"/>
-        <v>0.29318151543566118</v>
-      </c>
-      <c r="CY22" s="3">
-        <f t="shared" si="0"/>
-        <v>6.0086112879438884E-4</v>
-      </c>
-      <c r="CZ22" s="3">
-        <f t="shared" si="0"/>
-        <v>5.3927638682078306E-6</v>
-      </c>
-      <c r="DA22" s="3">
-        <f t="shared" si="0"/>
-        <v>0.62638369834230445</v>
-      </c>
-      <c r="DB22" s="6">
-        <f>BT22-CR22</f>
-        <v>2.296494524825915E-4</v>
-      </c>
-      <c r="DC22" s="6">
-        <f>BU22-CS22</f>
-        <v>-4.3607313407843383E-6</v>
-      </c>
-      <c r="DD22" s="6">
-        <f>BV22-CT22</f>
-        <v>-1.3115437433432262E-7</v>
-      </c>
-      <c r="DE22" s="6">
-        <f>BW22-CU22</f>
-        <v>-1.0762264278253025E-4</v>
-      </c>
-      <c r="DF22" s="6">
-        <f>BX22-CV22</f>
-        <v>-3.4636330053360454E-6</v>
-      </c>
-      <c r="DG22" s="6">
-        <f>BY22-CW22</f>
-        <v>9.2425773740916969E-6</v>
-      </c>
-      <c r="DH22" s="6">
-        <f>BZ22-CX22</f>
-        <v>1.0158391212711226E-5</v>
-      </c>
-      <c r="DI22" s="6">
-        <f>CA22-CY22</f>
-        <v>-2.1951482106707075E-6</v>
-      </c>
-      <c r="DJ22" s="6">
-        <f>CB22-CZ22</f>
-        <v>1.1385034651243965E-8</v>
-      </c>
-      <c r="DK22" s="6">
-        <f>CC22-DA22</f>
-        <v>8.2395354202846605E-6</v>
-      </c>
     </row>
-    <row r="23" spans="1:115" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>80</v>
       </c>
@@ -7607,168 +4821,8 @@
       <c r="BS23" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
-      <c r="BT23" s="3">
-        <f t="shared" si="1"/>
-        <v>5.6455405176392838E-2</v>
-      </c>
-      <c r="BU23" s="3">
-        <f t="shared" si="2"/>
-        <v>1.1723492037571726E-4</v>
-      </c>
-      <c r="BV23" s="3">
-        <f t="shared" si="3"/>
-        <v>8.860065012928331E-6</v>
-      </c>
-      <c r="BW23" s="3">
-        <f t="shared" si="4"/>
-        <v>1.5550949981382674E-2</v>
-      </c>
-      <c r="BX23" s="3">
-        <f t="shared" si="5"/>
-        <v>3.19774419104073E-4</v>
-      </c>
-      <c r="BY23" s="3">
-        <f t="shared" si="6"/>
-        <v>4.7439466355957208E-3</v>
-      </c>
-      <c r="BZ23" s="3">
-        <f t="shared" si="7"/>
-        <v>0.29395658035925737</v>
-      </c>
-      <c r="CA23" s="3">
-        <f t="shared" si="8"/>
-        <v>6.7677691297835852E-4</v>
-      </c>
-      <c r="CB23" s="3">
-        <f t="shared" si="9"/>
-        <v>5.0676430571355306E-6</v>
-      </c>
-      <c r="CC23" s="3">
-        <f t="shared" si="10"/>
-        <v>0.62829153281842831</v>
-      </c>
-      <c r="CD23" s="3">
-        <f t="shared" si="11"/>
-        <v>2.1849451902175854E-11</v>
-      </c>
-      <c r="CF23">
-        <v>17</v>
-      </c>
-      <c r="CG23" s="4">
-        <v>2.3691460000000001E-8</v>
-      </c>
-      <c r="CH23" s="4">
-        <v>5.1027680000000002E-11</v>
-      </c>
-      <c r="CI23" s="4">
-        <v>3.7827009999999998E-12</v>
-      </c>
-      <c r="CJ23" s="4">
-        <v>6.6087459999999999E-9</v>
-      </c>
-      <c r="CK23" s="4">
-        <v>1.3762309999999999E-10</v>
-      </c>
-      <c r="CL23" s="4">
-        <v>1.9942030000000001E-9</v>
-      </c>
-      <c r="CM23" s="4">
-        <v>1.2378709999999999E-7</v>
-      </c>
-      <c r="CN23" s="4">
-        <v>2.8601069999999999E-10</v>
-      </c>
-      <c r="CO23" s="4">
-        <v>2.1297639999999999E-12</v>
-      </c>
-      <c r="CP23" s="4">
-        <v>2.6458330000000001E-7</v>
-      </c>
-      <c r="CQ23" s="4">
-        <v>4.2114540000000003E-7</v>
-      </c>
-      <c r="CR23" s="3">
-        <f>CG23/$CQ23</f>
-        <v>5.6254823156088138E-2</v>
-      </c>
-      <c r="CS23" s="3">
-        <f t="shared" ref="CS23:DA26" si="12">CH23/$CQ23</f>
-        <v>1.2116404453188851E-4</v>
-      </c>
-      <c r="CT23" s="3">
-        <f t="shared" si="12"/>
-        <v>8.9819359299662297E-6</v>
-      </c>
-      <c r="CU23" s="3">
-        <f t="shared" si="12"/>
-        <v>1.5692314340842853E-2</v>
-      </c>
-      <c r="CV23" s="3">
-        <f t="shared" si="12"/>
-        <v>3.2678286406547473E-4</v>
-      </c>
-      <c r="CW23" s="3">
-        <f t="shared" si="12"/>
-        <v>4.735188844517832E-3</v>
-      </c>
-      <c r="CX23" s="3">
-        <f t="shared" si="12"/>
-        <v>0.29392960246033789</v>
-      </c>
-      <c r="CY23" s="3">
-        <f t="shared" si="12"/>
-        <v>6.7912578411161552E-4</v>
-      </c>
-      <c r="CZ23" s="3">
-        <f t="shared" si="12"/>
-        <v>5.057075299884552E-6</v>
-      </c>
-      <c r="DA23" s="3">
-        <f t="shared" si="12"/>
-        <v>0.6282469189975719</v>
-      </c>
-      <c r="DB23" s="6">
-        <f>BT23-CR23</f>
-        <v>2.0058202030470013E-4</v>
-      </c>
-      <c r="DC23" s="6">
-        <f>BU23-CS23</f>
-        <v>-3.9291241561712474E-6</v>
-      </c>
-      <c r="DD23" s="6">
-        <f>BV23-CT23</f>
-        <v>-1.218709170378987E-7</v>
-      </c>
-      <c r="DE23" s="6">
-        <f>BW23-CU23</f>
-        <v>-1.4136435946017836E-4</v>
-      </c>
-      <c r="DF23" s="6">
-        <f>BX23-CV23</f>
-        <v>-7.0084449614017338E-6</v>
-      </c>
-      <c r="DG23" s="6">
-        <f>BY23-CW23</f>
-        <v>8.7577910778888213E-6</v>
-      </c>
-      <c r="DH23" s="6">
-        <f>BZ23-CX23</f>
-        <v>2.6977898919477994E-5</v>
-      </c>
-      <c r="DI23" s="6">
-        <f>CA23-CY23</f>
-        <v>-2.3488711332569998E-6</v>
-      </c>
-      <c r="DJ23" s="6">
-        <f>CB23-CZ23</f>
-        <v>1.05677572509786E-8</v>
-      </c>
-      <c r="DK23" s="6">
-        <f>CC23-DA23</f>
-        <v>4.4613820856409525E-5</v>
-      </c>
     </row>
-    <row r="24" spans="1:115" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>80</v>
       </c>
@@ -7982,168 +5036,8 @@
       <c r="BS24" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
-      <c r="BT24" s="3">
-        <f t="shared" si="1"/>
-        <v>5.0460479334227946E-2</v>
-      </c>
-      <c r="BU24" s="3">
-        <f t="shared" si="2"/>
-        <v>1.0627766569158557E-4</v>
-      </c>
-      <c r="BV24" s="3">
-        <f t="shared" si="3"/>
-        <v>8.0278344763328295E-6</v>
-      </c>
-      <c r="BW24" s="3">
-        <f t="shared" si="4"/>
-        <v>2.1015937318766217E-2</v>
-      </c>
-      <c r="BX24" s="3">
-        <f t="shared" si="5"/>
-        <v>6.5389912703569847E-4</v>
-      </c>
-      <c r="BY24" s="3">
-        <f t="shared" si="6"/>
-        <v>4.4818547041363668E-3</v>
-      </c>
-      <c r="BZ24" s="3">
-        <f t="shared" si="7"/>
-        <v>0.29399400398586933</v>
-      </c>
-      <c r="CA24" s="3">
-        <f t="shared" si="8"/>
-        <v>7.5976174599491273E-4</v>
-      </c>
-      <c r="CB24" s="3">
-        <f t="shared" si="9"/>
-        <v>4.7529237223449653E-6</v>
-      </c>
-      <c r="CC24" s="3">
-        <f t="shared" si="10"/>
-        <v>0.62862858167559721</v>
-      </c>
-      <c r="CD24" s="3">
-        <f t="shared" si="11"/>
-        <v>2.1528416054569618E-11</v>
-      </c>
-      <c r="CF24">
-        <v>18</v>
-      </c>
-      <c r="CG24" s="4">
-        <v>2.1177050000000001E-8</v>
-      </c>
-      <c r="CH24" s="4">
-        <v>4.6248099999999997E-11</v>
-      </c>
-      <c r="CI24" s="4">
-        <v>3.4283889999999999E-12</v>
-      </c>
-      <c r="CJ24" s="4">
-        <v>8.9279170000000006E-9</v>
-      </c>
-      <c r="CK24" s="4">
-        <v>2.8119549999999998E-10</v>
-      </c>
-      <c r="CL24" s="4">
-        <v>1.884001E-9</v>
-      </c>
-      <c r="CM24" s="4">
-        <v>1.2379479999999999E-7</v>
-      </c>
-      <c r="CN24" s="4">
-        <v>3.2101819999999999E-10</v>
-      </c>
-      <c r="CO24" s="4">
-        <v>1.9975299999999999E-12</v>
-      </c>
-      <c r="CP24" s="4">
-        <v>2.6470809999999998E-7</v>
-      </c>
-      <c r="CQ24" s="4">
-        <v>4.2114579999999999E-7</v>
-      </c>
-      <c r="CR24" s="3">
-        <f>CG24/$CQ24</f>
-        <v>5.0284367076675114E-2</v>
-      </c>
-      <c r="CS24" s="3">
-        <f t="shared" si="12"/>
-        <v>1.0981493819954989E-4</v>
-      </c>
-      <c r="CT24" s="3">
-        <f t="shared" si="12"/>
-        <v>8.1406225587433133E-6</v>
-      </c>
-      <c r="CU24" s="3">
-        <f t="shared" si="12"/>
-        <v>2.1199112041483021E-2</v>
-      </c>
-      <c r="CV24" s="3">
-        <f t="shared" si="12"/>
-        <v>6.6769156904805888E-4</v>
-      </c>
-      <c r="CW24" s="3">
-        <f t="shared" si="12"/>
-        <v>4.4735124985218894E-3</v>
-      </c>
-      <c r="CX24" s="3">
-        <f t="shared" si="12"/>
-        <v>0.29394760674331788</v>
-      </c>
-      <c r="CY24" s="3">
-        <f t="shared" si="12"/>
-        <v>7.6224955822900284E-4</v>
-      </c>
-      <c r="CZ24" s="3">
-        <f t="shared" si="12"/>
-        <v>4.7430842240383256E-6</v>
-      </c>
-      <c r="DA24" s="3">
-        <f t="shared" si="12"/>
-        <v>0.62854265672363341</v>
-      </c>
-      <c r="DB24" s="6">
-        <f>BT24-CR24</f>
-        <v>1.7611225755283233E-4</v>
-      </c>
-      <c r="DC24" s="6">
-        <f>BU24-CS24</f>
-        <v>-3.5372725079643177E-6</v>
-      </c>
-      <c r="DD24" s="6">
-        <f>BV24-CT24</f>
-        <v>-1.1278808241048378E-7</v>
-      </c>
-      <c r="DE24" s="6">
-        <f>BW24-CU24</f>
-        <v>-1.8317472271680429E-4</v>
-      </c>
-      <c r="DF24" s="6">
-        <f>BX24-CV24</f>
-        <v>-1.3792442012360408E-5</v>
-      </c>
-      <c r="DG24" s="6">
-        <f>BY24-CW24</f>
-        <v>8.3422056144774256E-6</v>
-      </c>
-      <c r="DH24" s="6">
-        <f>BZ24-CX24</f>
-        <v>4.639724255145472E-5</v>
-      </c>
-      <c r="DI24" s="6">
-        <f>CA24-CY24</f>
-        <v>-2.4878122340901178E-6</v>
-      </c>
-      <c r="DJ24" s="6">
-        <f>CB24-CZ24</f>
-        <v>9.8394983066397106E-9</v>
-      </c>
-      <c r="DK24" s="6">
-        <f>CC24-DA24</f>
-        <v>8.5924951963800567E-5</v>
-      </c>
     </row>
-    <row r="25" spans="1:115" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>80</v>
       </c>
@@ -8357,168 +5251,8 @@
       <c r="BS25" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
-      <c r="BT25" s="3">
-        <f t="shared" si="1"/>
-        <v>4.5163125336483624E-2</v>
-      </c>
-      <c r="BU25" s="3">
-        <f t="shared" si="2"/>
-        <v>9.6392564494203979E-5</v>
-      </c>
-      <c r="BV25" s="3">
-        <f t="shared" si="3"/>
-        <v>7.2774422847873371E-6</v>
-      </c>
-      <c r="BW25" s="3">
-        <f t="shared" si="4"/>
-        <v>2.8041331071672962E-2</v>
-      </c>
-      <c r="BX25" s="3">
-        <f t="shared" si="5"/>
-        <v>1.3016559357904378E-3</v>
-      </c>
-      <c r="BY25" s="3">
-        <f t="shared" si="6"/>
-        <v>4.2291315974833507E-3</v>
-      </c>
-      <c r="BZ25" s="3">
-        <f t="shared" si="7"/>
-        <v>0.29321097618433295</v>
-      </c>
-      <c r="CA25" s="3">
-        <f t="shared" si="8"/>
-        <v>8.4694188112896247E-4</v>
-      </c>
-      <c r="CB25" s="3">
-        <f t="shared" si="9"/>
-        <v>4.4564555014495897E-6</v>
-      </c>
-      <c r="CC25" s="3">
-        <f t="shared" si="10"/>
-        <v>0.62720216445568056</v>
-      </c>
-      <c r="CD25" s="3">
-        <f t="shared" si="11"/>
-        <v>2.1288596890941154E-11</v>
-      </c>
-      <c r="CF25">
-        <v>19</v>
-      </c>
-      <c r="CG25" s="4">
-        <v>1.8954670000000001E-8</v>
-      </c>
-      <c r="CH25" s="4">
-        <v>4.1934820000000001E-11</v>
-      </c>
-      <c r="CI25" s="4">
-        <v>3.1086430000000001E-12</v>
-      </c>
-      <c r="CJ25" s="4">
-        <v>1.190799E-8</v>
-      </c>
-      <c r="CK25" s="4">
-        <v>5.5931040000000003E-10</v>
-      </c>
-      <c r="CL25" s="4">
-        <v>1.7777049999999999E-9</v>
-      </c>
-      <c r="CM25" s="4">
-        <v>1.2345529999999999E-7</v>
-      </c>
-      <c r="CN25" s="4">
-        <v>3.5778099999999999E-10</v>
-      </c>
-      <c r="CO25" s="4">
-        <v>1.8729130000000001E-12</v>
-      </c>
-      <c r="CP25" s="4">
-        <v>2.6408639999999999E-7</v>
-      </c>
-      <c r="CQ25" s="4">
-        <v>4.2114610000000002E-7</v>
-      </c>
-      <c r="CR25" s="3">
-        <f>CG25/$CQ25</f>
-        <v>4.5007350180851724E-2</v>
-      </c>
-      <c r="CS25" s="3">
-        <f t="shared" si="12"/>
-        <v>9.9573093517902695E-5</v>
-      </c>
-      <c r="CT25" s="3">
-        <f t="shared" si="12"/>
-        <v>7.3813885490094766E-6</v>
-      </c>
-      <c r="CU25" s="3">
-        <f t="shared" si="12"/>
-        <v>2.827519950914896E-2</v>
-      </c>
-      <c r="CV25" s="3">
-        <f t="shared" si="12"/>
-        <v>1.3280673856412299E-3</v>
-      </c>
-      <c r="CW25" s="3">
-        <f t="shared" si="12"/>
-        <v>4.2211123408242412E-3</v>
-      </c>
-      <c r="CX25" s="3">
-        <f t="shared" si="12"/>
-        <v>0.29314126380370137</v>
-      </c>
-      <c r="CY25" s="3">
-        <f t="shared" si="12"/>
-        <v>8.4954128745345133E-4</v>
-      </c>
-      <c r="CZ25" s="3">
-        <f t="shared" si="12"/>
-        <v>4.4471811563730496E-6</v>
-      </c>
-      <c r="DA25" s="3">
-        <f t="shared" si="12"/>
-        <v>0.62706599918650552</v>
-      </c>
-      <c r="DB25" s="6">
-        <f>BT25-CR25</f>
-        <v>1.5577515563190009E-4</v>
-      </c>
-      <c r="DC25" s="6">
-        <f>BU25-CS25</f>
-        <v>-3.1805290236987152E-6</v>
-      </c>
-      <c r="DD25" s="6">
-        <f>BV25-CT25</f>
-        <v>-1.0394626422213955E-7</v>
-      </c>
-      <c r="DE25" s="6">
-        <f>BW25-CU25</f>
-        <v>-2.3386843747599806E-4</v>
-      </c>
-      <c r="DF25" s="6">
-        <f>BX25-CV25</f>
-        <v>-2.641144985079209E-5</v>
-      </c>
-      <c r="DG25" s="6">
-        <f>BY25-CW25</f>
-        <v>8.0192566591094985E-6</v>
-      </c>
-      <c r="DH25" s="6">
-        <f>BZ25-CX25</f>
-        <v>6.9712380631581361E-5</v>
-      </c>
-      <c r="DI25" s="6">
-        <f>CA25-CY25</f>
-        <v>-2.5994063244888597E-6</v>
-      </c>
-      <c r="DJ25" s="6">
-        <f>CB25-CZ25</f>
-        <v>9.2743450765400825E-9</v>
-      </c>
-      <c r="DK25" s="6">
-        <f>CC25-DA25</f>
-        <v>1.3616526917503702E-4</v>
-      </c>
     </row>
-    <row r="26" spans="1:115" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>80</v>
       </c>
@@ -8732,178 +5466,1733 @@
       <c r="BS26" s="1">
         <v>1.7799999999999999E-5</v>
       </c>
-      <c r="BT26" s="3">
-        <f t="shared" si="1"/>
-        <v>4.0446293113856981E-2</v>
-      </c>
-      <c r="BU26" s="3">
-        <f t="shared" si="2"/>
-        <v>8.7420228513645018E-5</v>
-      </c>
-      <c r="BV26" s="3">
-        <f t="shared" si="3"/>
-        <v>6.5967247014851216E-6</v>
-      </c>
-      <c r="BW26" s="3">
-        <f t="shared" si="4"/>
-        <v>3.6939241206780687E-2</v>
-      </c>
-      <c r="BX26" s="3">
-        <f t="shared" si="5"/>
-        <v>2.5240097009025472E-3</v>
-      </c>
-      <c r="BY26" s="3">
-        <f t="shared" si="6"/>
-        <v>3.9833049392674269E-3</v>
-      </c>
-      <c r="BZ26" s="3">
-        <f t="shared" si="7"/>
-        <v>0.29146394410739185</v>
-      </c>
-      <c r="CA26" s="3">
-        <f t="shared" si="8"/>
-        <v>9.3724280483956665E-4</v>
-      </c>
-      <c r="CB26" s="3">
-        <f t="shared" si="9"/>
-        <v>4.1744432234812994E-6</v>
-      </c>
-      <c r="CC26" s="3">
-        <f t="shared" si="10"/>
-        <v>0.6237031059855328</v>
-      </c>
-      <c r="CD26" s="3">
-        <f t="shared" si="11"/>
-        <v>2.1140961963457833E-11</v>
-      </c>
-      <c r="CF26">
-        <v>20</v>
-      </c>
-      <c r="CG26" s="4">
-        <v>1.6975300000000001E-8</v>
-      </c>
-      <c r="CH26" s="4">
-        <v>3.8018860000000003E-11</v>
-      </c>
-      <c r="CI26" s="4">
-        <v>2.8183510000000002E-12</v>
-      </c>
-      <c r="CJ26" s="4">
-        <v>1.568069E-8</v>
-      </c>
-      <c r="CK26" s="4">
-        <v>1.0837149999999999E-9</v>
-      </c>
-      <c r="CL26" s="4">
-        <v>1.674281E-9</v>
-      </c>
-      <c r="CM26" s="4">
-        <v>1.2270740000000001E-7</v>
-      </c>
-      <c r="CN26" s="4">
-        <v>3.9584E-10</v>
-      </c>
-      <c r="CO26" s="4">
-        <v>1.7543430000000001E-12</v>
-      </c>
-      <c r="CP26" s="4">
-        <v>2.6258660000000003E-7</v>
-      </c>
-      <c r="CQ26" s="4">
-        <v>4.211464E-7</v>
-      </c>
-      <c r="CR26" s="3">
-        <f>CG26/$CQ26</f>
-        <v>4.0307361050694011E-2</v>
-      </c>
-      <c r="CS26" s="3">
-        <f t="shared" si="12"/>
-        <v>9.02746883269096E-5</v>
-      </c>
-      <c r="CT26" s="3">
-        <f t="shared" si="12"/>
-        <v>6.692093295823021E-6</v>
-      </c>
-      <c r="CU26" s="3">
-        <f t="shared" si="12"/>
-        <v>3.7233346883649016E-2</v>
-      </c>
-      <c r="CV26" s="3">
-        <f t="shared" si="12"/>
-        <v>2.5732500622111455E-3</v>
-      </c>
-      <c r="CW26" s="3">
-        <f t="shared" si="12"/>
-        <v>3.9755320240182513E-3</v>
-      </c>
-      <c r="CX26" s="3">
-        <f t="shared" si="12"/>
-        <v>0.2913651879726385</v>
-      </c>
-      <c r="CY26" s="3">
-        <f t="shared" si="12"/>
-        <v>9.399106818911428E-4</v>
-      </c>
-      <c r="CZ26" s="3">
-        <f t="shared" si="12"/>
-        <v>4.1656369376539849E-6</v>
-      </c>
-      <c r="DA26" s="3">
-        <f t="shared" si="12"/>
-        <v>0.62350432058780514</v>
-      </c>
-      <c r="DB26" s="6">
-        <f>BT26-CR26</f>
-        <v>1.3893206316296924E-4</v>
-      </c>
-      <c r="DC26" s="6">
-        <f>BU26-CS26</f>
-        <v>-2.8544598132645819E-6</v>
-      </c>
-      <c r="DD26" s="6">
-        <f>BV26-CT26</f>
-        <v>-9.536859433789941E-8</v>
-      </c>
-      <c r="DE26" s="6">
-        <f>BW26-CU26</f>
-        <v>-2.9410567686832811E-4</v>
-      </c>
-      <c r="DF26" s="6">
-        <f>BX26-CV26</f>
-        <v>-4.9240361308598365E-5</v>
-      </c>
-      <c r="DG26" s="6">
-        <f>BY26-CW26</f>
-        <v>7.7729152491755674E-6</v>
-      </c>
-      <c r="DH26" s="6">
-        <f>BZ26-CX26</f>
-        <v>9.8756134753352764E-5</v>
-      </c>
-      <c r="DI26" s="6">
-        <f>CA26-CY26</f>
-        <v>-2.6678770515761469E-6</v>
-      </c>
-      <c r="DJ26" s="6">
-        <f>CB26-CZ26</f>
-        <v>8.8062858273145044E-9</v>
-      </c>
-      <c r="DK26" s="6">
-        <f>CC26-DA26</f>
-        <v>1.9878539772766324E-4</v>
+    </row>
+    <row r="27" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2.884402938718722E-8</v>
+      </c>
+      <c r="D27" s="1">
+        <v>7.9383661102938596E-12</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2.0000000949949025E-14</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2.7481050346978009E-4</v>
+      </c>
+      <c r="G27" s="1">
+        <v>4.6127400128170848E-4</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1.1004899861291051E-3</v>
+      </c>
+      <c r="I27" s="1">
+        <v>5.3710798965767026E-5</v>
+      </c>
+      <c r="J27" s="1">
+        <v>7.4144435347989202E-4</v>
+      </c>
+      <c r="K27" s="1">
+        <v>5.3592098993249238E-5</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1.7478063227827079E-6</v>
+      </c>
+      <c r="M27" s="1">
+        <v>1.412832778992926E-26</v>
+      </c>
+      <c r="N27" s="1">
+        <v>1.3102791691689845E-10</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1.8374850753330707E-14</v>
+      </c>
+      <c r="P27" s="1">
+        <v>1.3879878207726823E-15</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>1.0081515606745568E-10</v>
+      </c>
+      <c r="R27" s="1">
+        <v>1.6921991642211377E-10</v>
+      </c>
+      <c r="S27" s="1">
+        <v>8.6936481612159079E-13</v>
+      </c>
+      <c r="T27" s="1">
+        <v>1.3204808945539692E-10</v>
+      </c>
+      <c r="U27" s="1">
+        <v>1.0249237529933453E-3</v>
+      </c>
+      <c r="V27" s="1">
+        <v>6.5956155594903976E-5</v>
+      </c>
+      <c r="W27" s="1">
+        <v>2.4927069987827016E-20</v>
+      </c>
+      <c r="X27" s="1">
+        <v>6.2605948220835837E-21</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>4.0888376133807469E-6</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>3.8816463643343013E-7</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>3.6203029594616964E-5</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>2.3837335447751684E-6</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>3.8215802078411798E-7</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>2.1839608962181956E-5</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>3.3061990645233408E-12</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>1.0287052514077605E-13</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>7.0508090468587858E-13</v>
+      </c>
+      <c r="AH27" s="1">
+        <v>4.6267045750170155E-11</v>
+      </c>
+      <c r="AI27" s="1">
+        <v>1.1960952248177975E-13</v>
+      </c>
+      <c r="AJ27" s="1">
+        <v>7.4772357520509476E-16</v>
+      </c>
+      <c r="AK27" s="1">
+        <v>9.892996838400947E-11</v>
+      </c>
+      <c r="AL27" s="1">
+        <v>5.8198752702887803E-19</v>
+      </c>
+      <c r="AM27" s="1">
+        <v>7.8977646143333579E-20</v>
+      </c>
+      <c r="AN27" s="1">
+        <v>1.6441631403952742E-17</v>
+      </c>
+      <c r="AO27" s="1">
+        <v>2.6972484583764711E-17</v>
+      </c>
+      <c r="AP27" s="1">
+        <v>1.1582565094410493E-17</v>
+      </c>
+      <c r="AQ27" s="1">
+        <v>5.6530169296727468E-19</v>
+      </c>
+      <c r="AR27" s="1">
+        <v>3.1192203118183296E-3</v>
+      </c>
+      <c r="AS27" s="1">
+        <v>7.1294112436595071E-3</v>
+      </c>
+      <c r="AT27" s="1">
+        <v>0.93313413858413696</v>
+      </c>
+      <c r="AU27" s="1">
+        <v>0.77005887031555176</v>
+      </c>
+      <c r="AV27" s="1">
+        <v>0.57312244176864624</v>
+      </c>
+      <c r="AW27" s="1">
+        <v>0.39075544476509094</v>
+      </c>
+      <c r="AX27" s="1">
+        <v>-1.3814207632094622E-3</v>
+      </c>
+      <c r="AY27" s="1">
+        <v>-2.8893346898257732E-3</v>
+      </c>
+      <c r="AZ27" s="1">
+        <v>4.4757619500160217E-2</v>
+      </c>
+      <c r="BA27" s="1">
+        <v>0.28726258873939514</v>
+      </c>
+      <c r="BB27" s="1">
+        <v>5.1926239791959161E-17</v>
+      </c>
+      <c r="BC27" s="1">
+        <v>3.8412634990956773E-15</v>
+      </c>
+      <c r="BD27" s="1">
+        <v>288</v>
+      </c>
+      <c r="BE27" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF27" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG27" s="1">
+        <v>12</v>
+      </c>
+      <c r="BH27" s="1">
+        <v>-3.6228733331477442E-4</v>
+      </c>
+      <c r="BI27" s="1">
+        <v>1.5737000591542483E-10</v>
+      </c>
+      <c r="BJ27" s="1">
+        <v>2.0000000949949025E-14</v>
+      </c>
+      <c r="BK27" s="1">
+        <v>2.9941598768346012E-4</v>
+      </c>
+      <c r="BL27" s="1">
+        <v>5.0195399671792984E-4</v>
+      </c>
+      <c r="BM27" s="1">
+        <v>1.1004899861291051E-3</v>
+      </c>
+      <c r="BN27" s="1">
+        <v>5.3710798965767026E-5</v>
+      </c>
+      <c r="BO27" s="1">
+        <v>7.9948699567466974E-4</v>
+      </c>
+      <c r="BP27" s="1">
+        <v>5.3592098993249238E-5</v>
+      </c>
+      <c r="BQ27" s="1">
+        <v>1.0998699581250548E-3</v>
+      </c>
+      <c r="BR27" s="1">
+        <v>3.1187600994218811E-20</v>
+      </c>
+      <c r="BS27" s="1">
+        <v>1.7799999999999999E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2.884402938718722E-8</v>
+      </c>
+      <c r="D28" s="1">
+        <v>7.9383895290607853E-11</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2.0000000949949025E-14</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2.7481050346978009E-4</v>
+      </c>
+      <c r="G28" s="1">
+        <v>4.6127400128170848E-4</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1.1004899861291051E-3</v>
+      </c>
+      <c r="I28" s="1">
+        <v>5.3710798965767026E-5</v>
+      </c>
+      <c r="J28" s="1">
+        <v>7.4144435347989202E-4</v>
+      </c>
+      <c r="K28" s="1">
+        <v>5.3592098993249238E-5</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1.7478041627327912E-6</v>
+      </c>
+      <c r="M28" s="1">
+        <v>1.4128338575136948E-26</v>
+      </c>
+      <c r="N28" s="1">
+        <v>1.3098427584428982E-10</v>
+      </c>
+      <c r="O28" s="1">
+        <v>1.8368787974914488E-13</v>
+      </c>
+      <c r="P28" s="1">
+        <v>1.3875297961376754E-14</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>1.0078159481325151E-10</v>
+      </c>
+      <c r="R28" s="1">
+        <v>1.6916358329867297E-10</v>
+      </c>
+      <c r="S28" s="1">
+        <v>8.6907529593911085E-13</v>
+      </c>
+      <c r="T28" s="1">
+        <v>1.3200411414578432E-10</v>
+      </c>
+      <c r="U28" s="1">
+        <v>1.024922588840127E-3</v>
+      </c>
+      <c r="V28" s="1">
+        <v>6.5956082835327834E-5</v>
+      </c>
+      <c r="W28" s="1">
+        <v>2.4927069987827016E-20</v>
+      </c>
+      <c r="X28" s="1">
+        <v>6.2605948220835837E-21</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>4.0888326111598872E-6</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>3.8816463643343013E-7</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>3.6203029594616964E-5</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>2.383731271038414E-6</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>3.8215759445847652E-7</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>2.1839608962181956E-5</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>3.306213636200539E-11</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>1.0287097779518306E-12</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>7.0508399466207017E-12</v>
+      </c>
+      <c r="AH28" s="1">
+        <v>4.6267248365872149E-10</v>
+      </c>
+      <c r="AI28" s="1">
+        <v>1.1960977997979572E-12</v>
+      </c>
+      <c r="AJ28" s="1">
+        <v>7.4772688922150089E-15</v>
+      </c>
+      <c r="AK28" s="1">
+        <v>9.8930186265278053E-10</v>
+      </c>
+      <c r="AL28" s="1">
+        <v>5.8142847639822917E-19</v>
+      </c>
+      <c r="AM28" s="1">
+        <v>6.2414195199068357E-19</v>
+      </c>
+      <c r="AN28" s="1">
+        <v>1.628509435128833E-17</v>
+      </c>
+      <c r="AO28" s="1">
+        <v>2.6798528196709557E-17</v>
+      </c>
+      <c r="AP28" s="1">
+        <v>1.1557117710045912E-17</v>
+      </c>
+      <c r="AQ28" s="1">
+        <v>5.6405968127752631E-19</v>
+      </c>
+      <c r="AR28" s="1">
+        <v>3.1192179796150099E-3</v>
+      </c>
+      <c r="AS28" s="1">
+        <v>7.1294036930976169E-3</v>
+      </c>
+      <c r="AT28" s="1">
+        <v>0.93313413858413696</v>
+      </c>
+      <c r="AU28" s="1">
+        <v>0.77005887031555176</v>
+      </c>
+      <c r="AV28" s="1">
+        <v>0.57312244176864624</v>
+      </c>
+      <c r="AW28" s="1">
+        <v>0.39075544476509094</v>
+      </c>
+      <c r="AX28" s="1">
+        <v>-1.3588531874120235E-3</v>
+      </c>
+      <c r="AY28" s="1">
+        <v>-2.881146501749754E-3</v>
+      </c>
+      <c r="AZ28" s="1">
+        <v>4.475761204957962E-2</v>
+      </c>
+      <c r="BA28" s="1">
+        <v>0.28726258873939514</v>
+      </c>
+      <c r="BB28" s="1">
+        <v>5.1566611440123156E-17</v>
+      </c>
+      <c r="BC28" s="1">
+        <v>3.8384585494908446E-15</v>
+      </c>
+      <c r="BD28" s="1">
+        <v>288</v>
+      </c>
+      <c r="BE28" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF28" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG28" s="1">
+        <v>12</v>
+      </c>
+      <c r="BH28" s="1">
+        <v>-3.6228849413251756E-4</v>
+      </c>
+      <c r="BI28" s="1">
+        <v>1.5736999481319458E-9</v>
+      </c>
+      <c r="BJ28" s="1">
+        <v>2.0000000949949025E-14</v>
+      </c>
+      <c r="BK28" s="1">
+        <v>2.9941598768346012E-4</v>
+      </c>
+      <c r="BL28" s="1">
+        <v>5.0195399671792984E-4</v>
+      </c>
+      <c r="BM28" s="1">
+        <v>1.1004899861291051E-3</v>
+      </c>
+      <c r="BN28" s="1">
+        <v>5.3710798965767026E-5</v>
+      </c>
+      <c r="BO28" s="1">
+        <v>7.9948699567466974E-4</v>
+      </c>
+      <c r="BP28" s="1">
+        <v>5.3592098993249238E-5</v>
+      </c>
+      <c r="BQ28" s="1">
+        <v>1.0998699581250548E-3</v>
+      </c>
+      <c r="BR28" s="1">
+        <v>3.1187600994218811E-20</v>
+      </c>
+      <c r="BS28" s="1">
+        <v>1.7799999999999999E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2.884402938718722E-8</v>
+      </c>
+      <c r="D29" s="1">
+        <v>7.9384654405600941E-10</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2.0000000949949025E-14</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2.7481053257361054E-4</v>
+      </c>
+      <c r="G29" s="1">
+        <v>4.6127405948936939E-4</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1.1004899861291051E-3</v>
+      </c>
+      <c r="I29" s="1">
+        <v>5.3710798965767026E-5</v>
+      </c>
+      <c r="J29" s="1">
+        <v>7.4144435347989202E-4</v>
+      </c>
+      <c r="K29" s="1">
+        <v>5.3592098993249238E-5</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1.7477823348599486E-6</v>
+      </c>
+      <c r="M29" s="1">
+        <v>1.4128343197368815E-26</v>
+      </c>
+      <c r="N29" s="1">
+        <v>1.3054944452686656E-10</v>
+      </c>
+      <c r="O29" s="1">
+        <v>1.830801484539508E-12</v>
+      </c>
+      <c r="P29" s="1">
+        <v>1.3829385676547349E-13</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>1.0044720904028089E-10</v>
+      </c>
+      <c r="R29" s="1">
+        <v>1.6860231463645499E-10</v>
+      </c>
+      <c r="S29" s="1">
+        <v>8.6619057538005778E-13</v>
+      </c>
+      <c r="T29" s="1">
+        <v>1.3156595305233792E-10</v>
+      </c>
+      <c r="U29" s="1">
+        <v>1.0249092010781169E-3</v>
+      </c>
+      <c r="V29" s="1">
+        <v>6.5955216996371746E-5</v>
+      </c>
+      <c r="W29" s="1">
+        <v>2.4927069987827016E-20</v>
+      </c>
+      <c r="X29" s="1">
+        <v>6.2605948220835837E-21</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>4.0887789509724826E-6</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>3.8815952052573266E-7</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>3.6203029594616964E-5</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>2.3836996660975274E-6</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>3.8215256381590734E-7</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>2.1839608962181956E-5</v>
+      </c>
+      <c r="AE29" s="1">
+        <v>3.3062427795549354E-10</v>
+      </c>
+      <c r="AF29" s="1">
+        <v>1.0287187768298622E-11</v>
+      </c>
+      <c r="AG29" s="1">
+        <v>7.0509015293040989E-11</v>
+      </c>
+      <c r="AH29" s="1">
+        <v>4.6267043529724106E-9</v>
+      </c>
+      <c r="AI29" s="1">
+        <v>1.1960767445917675E-11</v>
+      </c>
+      <c r="AJ29" s="1">
+        <v>7.4773344525651264E-14</v>
+      </c>
+      <c r="AK29" s="1">
+        <v>9.8929744396514252E-9</v>
+      </c>
+      <c r="AL29" s="1">
+        <v>5.7808888582710665E-19</v>
+      </c>
+      <c r="AM29" s="1">
+        <v>2.8892702268835632E-18</v>
+      </c>
+      <c r="AN29" s="1">
+        <v>1.5774065694569067E-17</v>
+      </c>
+      <c r="AO29" s="1">
+        <v>2.6095063240924857E-17</v>
+      </c>
+      <c r="AP29" s="1">
+        <v>1.1407356660143186E-17</v>
+      </c>
+      <c r="AQ29" s="1">
+        <v>5.5675045489106634E-19</v>
+      </c>
+      <c r="AR29" s="1">
+        <v>3.1191965876380045E-3</v>
+      </c>
+      <c r="AS29" s="1">
+        <v>7.129327506057776E-3</v>
+      </c>
+      <c r="AT29" s="1">
+        <v>0.93313413858413696</v>
+      </c>
+      <c r="AU29" s="1">
+        <v>0.77005887031555176</v>
+      </c>
+      <c r="AV29" s="1">
+        <v>0.57312244176864624</v>
+      </c>
+      <c r="AW29" s="1">
+        <v>0.39075544476509094</v>
+      </c>
+      <c r="AX29" s="1">
+        <v>-1.2930529192090034E-3</v>
+      </c>
+      <c r="AY29" s="1">
+        <v>-2.8289491310715675E-3</v>
+      </c>
+      <c r="AZ29" s="1">
+        <v>4.4757619500160217E-2</v>
+      </c>
+      <c r="BA29" s="1">
+        <v>0.28726258873939514</v>
+      </c>
+      <c r="BB29" s="1">
+        <v>5.0477664559644048E-17</v>
+      </c>
+      <c r="BC29" s="1">
+        <v>3.8202968925522916E-15</v>
+      </c>
+      <c r="BD29" s="1">
+        <v>288</v>
+      </c>
+      <c r="BE29" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF29" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG29" s="1">
+        <v>12</v>
+      </c>
+      <c r="BH29" s="1">
+        <v>-3.6230214571555215E-4</v>
+      </c>
+      <c r="BI29" s="1">
+        <v>1.5736999259274853E-8</v>
+      </c>
+      <c r="BJ29" s="1">
+        <v>2.0000000949949025E-14</v>
+      </c>
+      <c r="BK29" s="1">
+        <v>2.9941598768346012E-4</v>
+      </c>
+      <c r="BL29" s="1">
+        <v>5.0195399671792984E-4</v>
+      </c>
+      <c r="BM29" s="1">
+        <v>1.1004899861291051E-3</v>
+      </c>
+      <c r="BN29" s="1">
+        <v>5.3710798965767026E-5</v>
+      </c>
+      <c r="BO29" s="1">
+        <v>7.9948699567466974E-4</v>
+      </c>
+      <c r="BP29" s="1">
+        <v>5.3592098993249238E-5</v>
+      </c>
+      <c r="BQ29" s="1">
+        <v>1.0998699581250548E-3</v>
+      </c>
+      <c r="BR29" s="1">
+        <v>3.1187600994218811E-20</v>
+      </c>
+      <c r="BS29" s="1">
+        <v>1.7799999999999999E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2.884402938718722E-8</v>
+      </c>
+      <c r="D30" s="1">
+        <v>7.9393425167495479E-9</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2.0000000949949025E-14</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2.7481085271574557E-4</v>
+      </c>
+      <c r="G30" s="1">
+        <v>4.6127455425448716E-4</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1.1004899861291051E-3</v>
+      </c>
+      <c r="I30" s="1">
+        <v>5.3710798965767026E-5</v>
+      </c>
+      <c r="J30" s="1">
+        <v>7.4144359678030014E-4</v>
+      </c>
+      <c r="K30" s="1">
+        <v>5.3592098993249238E-5</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1.7475751974416198E-6</v>
+      </c>
+      <c r="M30" s="1">
+        <v>1.4128335493649037E-26</v>
+      </c>
+      <c r="N30" s="1">
+        <v>1.263542614874441E-10</v>
+      </c>
+      <c r="O30" s="1">
+        <v>1.7721946443390677E-11</v>
+      </c>
+      <c r="P30" s="1">
+        <v>1.3386628856184227E-12</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>9.7221107470336422E-11</v>
+      </c>
+      <c r="R30" s="1">
+        <v>1.6318723430800502E-10</v>
+      </c>
+      <c r="S30" s="1">
+        <v>8.3835922803332687E-13</v>
+      </c>
+      <c r="T30" s="1">
+        <v>1.2733864113914068E-10</v>
+      </c>
+      <c r="U30" s="1">
+        <v>1.0247876634821296E-3</v>
+      </c>
+      <c r="V30" s="1">
+        <v>6.5947395341936499E-5</v>
+      </c>
+      <c r="W30" s="1">
+        <v>2.4927069987827016E-20</v>
+      </c>
+      <c r="X30" s="1">
+        <v>6.2605948220835837E-21</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>4.0883028304961044E-6</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>3.8811350577816484E-7</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>3.6203029594616964E-5</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>2.3834197691030568E-6</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>3.821076575150073E-7</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>2.1839608962181956E-5</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>3.3066056559505341E-9</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>1.0288317420226178E-10</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>7.0516603667414302E-10</v>
+      </c>
+      <c r="AH30" s="1">
+        <v>4.6266638520364722E-8</v>
+      </c>
+      <c r="AI30" s="1">
+        <v>1.1959243317871682E-10</v>
+      </c>
+      <c r="AJ30" s="1">
+        <v>7.4781554646602411E-13</v>
+      </c>
+      <c r="AK30" s="1">
+        <v>9.8928992997571186E-8</v>
+      </c>
+      <c r="AL30" s="1">
+        <v>5.7108419685807887E-19</v>
+      </c>
+      <c r="AM30" s="1">
+        <v>7.0995259997585249E-18</v>
+      </c>
+      <c r="AN30" s="1">
+        <v>1.4974518831058317E-17</v>
+      </c>
+      <c r="AO30" s="1">
+        <v>2.4834112036534456E-17</v>
+      </c>
+      <c r="AP30" s="1">
+        <v>1.1074917735041799E-17</v>
+      </c>
+      <c r="AQ30" s="1">
+        <v>5.4052525547705041E-19</v>
+      </c>
+      <c r="AR30" s="1">
+        <v>3.1189721251633508E-3</v>
+      </c>
+      <c r="AS30" s="1">
+        <v>7.1285708170106864E-3</v>
+      </c>
+      <c r="AT30" s="1">
+        <v>0.93313413858413696</v>
+      </c>
+      <c r="AU30" s="1">
+        <v>0.77005892992019653</v>
+      </c>
+      <c r="AV30" s="1">
+        <v>0.57312244176864624</v>
+      </c>
+      <c r="AW30" s="1">
+        <v>0.39075547456741333</v>
+      </c>
+      <c r="AX30" s="1">
+        <v>-1.215336611494422E-3</v>
+      </c>
+      <c r="AY30" s="1">
+        <v>-2.7105151675641537E-3</v>
+      </c>
+      <c r="AZ30" s="1">
+        <v>4.4757626950740814E-2</v>
+      </c>
+      <c r="BA30" s="1">
+        <v>0.2872626781463623</v>
+      </c>
+      <c r="BB30" s="1">
+        <v>4.9108190954946155E-17</v>
+      </c>
+      <c r="BC30" s="1">
+        <v>3.7771943504818356E-15</v>
+      </c>
+      <c r="BD30" s="1">
+        <v>288</v>
+      </c>
+      <c r="BE30" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF30" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG30" s="1">
+        <v>12</v>
+      </c>
+      <c r="BH30" s="1">
+        <v>-3.6242446990521009E-4</v>
+      </c>
+      <c r="BI30" s="1">
+        <v>1.5736999614546221E-7</v>
+      </c>
+      <c r="BJ30" s="1">
+        <v>2.0000000949949025E-14</v>
+      </c>
+      <c r="BK30" s="1">
+        <v>2.9941598768346012E-4</v>
+      </c>
+      <c r="BL30" s="1">
+        <v>5.0195399671792984E-4</v>
+      </c>
+      <c r="BM30" s="1">
+        <v>1.1004899861291051E-3</v>
+      </c>
+      <c r="BN30" s="1">
+        <v>5.3710798965767026E-5</v>
+      </c>
+      <c r="BO30" s="1">
+        <v>7.9948699567466974E-4</v>
+      </c>
+      <c r="BP30" s="1">
+        <v>5.3592098993249238E-5</v>
+      </c>
+      <c r="BQ30" s="1">
+        <v>1.0998699581250548E-3</v>
+      </c>
+      <c r="BR30" s="1">
+        <v>3.1187600994218811E-20</v>
+      </c>
+      <c r="BS30" s="1">
+        <v>1.7799999999999999E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2.8844027610830381E-8</v>
+      </c>
+      <c r="D31" s="1">
+        <v>7.948082725306449E-8</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2.0000000949949025E-14</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2.748139959294349E-4</v>
+      </c>
+      <c r="G31" s="1">
+        <v>4.6127973473630846E-4</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1.1004899861291051E-3</v>
+      </c>
+      <c r="I31" s="1">
+        <v>5.3710798965767026E-5</v>
+      </c>
+      <c r="J31" s="1">
+        <v>7.4143719393759966E-4</v>
+      </c>
+      <c r="K31" s="1">
+        <v>5.3592091717291623E-5</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1.7454940461902879E-6</v>
+      </c>
+      <c r="M31" s="1">
+        <v>1.4128332412161126E-26</v>
+      </c>
+      <c r="N31" s="1">
+        <v>9.5592949262194391E-11</v>
+      </c>
+      <c r="O31" s="1">
+        <v>1.3424492209013684E-10</v>
+      </c>
+      <c r="P31" s="1">
+        <v>1.0140036933887789E-11</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>7.3565491099267256E-11</v>
+      </c>
+      <c r="R31" s="1">
+        <v>1.2348086604995803E-10</v>
+      </c>
+      <c r="S31" s="1">
+        <v>6.3428472020907016E-13</v>
+      </c>
+      <c r="T31" s="1">
+        <v>9.6341707277874703E-11</v>
+      </c>
+      <c r="U31" s="1">
+        <v>1.0235673980787396E-3</v>
+      </c>
+      <c r="V31" s="1">
+        <v>6.5868880483321846E-5</v>
+      </c>
+      <c r="W31" s="1">
+        <v>2.4927068372239882E-20</v>
+      </c>
+      <c r="X31" s="1">
+        <v>6.2605948220835837E-21</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>4.0834802348399535E-6</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>3.8765608678659191E-7</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>3.6203149647917598E-5</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>2.3806105673429556E-6</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>3.8165734395079198E-7</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>2.183970354963094E-5</v>
+      </c>
+      <c r="AE31" s="1">
+        <v>3.3102487861924601E-8</v>
+      </c>
+      <c r="AF31" s="1">
+        <v>1.0299665564872384E-9</v>
+      </c>
+      <c r="AG31" s="1">
+        <v>7.0593761947179701E-9</v>
+      </c>
+      <c r="AH31" s="1">
+        <v>4.6262474029390432E-7</v>
+      </c>
+      <c r="AI31" s="1">
+        <v>1.1943914746126438E-9</v>
+      </c>
+      <c r="AJ31" s="1">
+        <v>7.4864029905863383E-12</v>
+      </c>
+      <c r="AK31" s="1">
+        <v>9.8920077107322868E-7</v>
+      </c>
+      <c r="AL31" s="1">
+        <v>5.7034647516739247E-19</v>
+      </c>
+      <c r="AM31" s="1">
+        <v>1.1879558753997048E-17</v>
+      </c>
+      <c r="AN31" s="1">
+        <v>1.4083545594170603E-17</v>
+      </c>
+      <c r="AO31" s="1">
+        <v>2.3412725975388271E-17</v>
+      </c>
+      <c r="AP31" s="1">
+        <v>1.0715627700076329E-17</v>
+      </c>
+      <c r="AQ31" s="1">
+        <v>5.2298969857517393E-19</v>
+      </c>
+      <c r="AR31" s="1">
+        <v>3.1167646514943421E-3</v>
+      </c>
+      <c r="AS31" s="1">
+        <v>7.1210626529422776E-3</v>
+      </c>
+      <c r="AT31" s="1">
+        <v>0.93313419818878174</v>
+      </c>
+      <c r="AU31" s="1">
+        <v>0.77005910873413086</v>
+      </c>
+      <c r="AV31" s="1">
+        <v>0.57312273979187012</v>
+      </c>
+      <c r="AW31" s="1">
+        <v>0.39075577259063721</v>
+      </c>
+      <c r="AX31" s="1">
+        <v>-1.115963445045054E-3</v>
+      </c>
+      <c r="AY31" s="1">
+        <v>-2.5868753436952829E-3</v>
+      </c>
+      <c r="AZ31" s="1">
+        <v>4.475773498415947E-2</v>
+      </c>
+      <c r="BA31" s="1">
+        <v>0.287263423204422</v>
+      </c>
+      <c r="BB31" s="1">
+        <v>4.7210648555916861E-17</v>
+      </c>
+      <c r="BC31" s="1">
+        <v>3.7291692764384113E-15</v>
+      </c>
+      <c r="BD31" s="1">
+        <v>288</v>
+      </c>
+      <c r="BE31" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF31" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG31" s="1">
+        <v>12</v>
+      </c>
+      <c r="BH31" s="1">
+        <v>-3.6364618850413073E-4</v>
+      </c>
+      <c r="BI31" s="1">
+        <v>1.5737000467197504E-6</v>
+      </c>
+      <c r="BJ31" s="1">
+        <v>2.0000000949949025E-14</v>
+      </c>
+      <c r="BK31" s="1">
+        <v>2.9941598768346012E-4</v>
+      </c>
+      <c r="BL31" s="1">
+        <v>5.0195399671792984E-4</v>
+      </c>
+      <c r="BM31" s="1">
+        <v>1.1004899861291051E-3</v>
+      </c>
+      <c r="BN31" s="1">
+        <v>5.3710798965767026E-5</v>
+      </c>
+      <c r="BO31" s="1">
+        <v>7.9948699567466974E-4</v>
+      </c>
+      <c r="BP31" s="1">
+        <v>5.3592098993249238E-5</v>
+      </c>
+      <c r="BQ31" s="1">
+        <v>1.0998699581250548E-3</v>
+      </c>
+      <c r="BR31" s="1">
+        <v>3.1187600994218811E-20</v>
+      </c>
+      <c r="BS31" s="1">
+        <v>1.7799999999999999E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2.8844009847261987E-8</v>
+      </c>
+      <c r="D32" s="1">
+        <v>8.0364713994640624E-7</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2.0000000949949025E-14</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2.7484589372761548E-4</v>
+      </c>
+      <c r="G32" s="1">
+        <v>4.6133145224303007E-4</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1.1004898697137833E-3</v>
+      </c>
+      <c r="I32" s="1">
+        <v>5.3710798965767026E-5</v>
+      </c>
+      <c r="J32" s="1">
+        <v>7.4137112824246287E-4</v>
+      </c>
+      <c r="K32" s="1">
+        <v>5.3592022595694289E-5</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1.724713115436316E-6</v>
+      </c>
+      <c r="M32" s="1">
+        <v>1.4128290812074328E-26</v>
+      </c>
+      <c r="N32" s="1">
+        <v>2.7561138079816073E-11</v>
+      </c>
+      <c r="O32" s="1">
+        <v>3.9196626157457333E-10</v>
+      </c>
+      <c r="P32" s="1">
+        <v>2.9595214824820947E-11</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>2.1245763327358234E-11</v>
+      </c>
+      <c r="R32" s="1">
+        <v>3.5661216243366721E-11</v>
+      </c>
+      <c r="S32" s="1">
+        <v>1.8294662215756105E-13</v>
+      </c>
+      <c r="T32" s="1">
+        <v>2.7787834623628365E-11</v>
+      </c>
+      <c r="U32" s="1">
+        <v>1.0113834869116545E-3</v>
+      </c>
+      <c r="V32" s="1">
+        <v>6.5084852394647896E-5</v>
+      </c>
+      <c r="W32" s="1">
+        <v>2.4927053831955677E-20</v>
+      </c>
+      <c r="X32" s="1">
+        <v>6.2605948220835837E-21</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>4.0353334043174982E-6</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>3.8308559169308865E-7</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>3.6204102798365057E-5</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>2.3525494725618046E-6</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>3.7715923895120795E-7</v>
+      </c>
+      <c r="AD32" s="1">
+        <v>2.1840374756720848E-5</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>3.3470641369603982E-7</v>
+      </c>
+      <c r="AF32" s="1">
+        <v>1.0414209050679801E-8</v>
+      </c>
+      <c r="AG32" s="1">
+        <v>7.1372653565049404E-8</v>
+      </c>
+      <c r="AH32" s="1">
+        <v>4.6220229705795646E-6</v>
+      </c>
+      <c r="AI32" s="1">
+        <v>1.1790972642700126E-8</v>
+      </c>
+      <c r="AJ32" s="1">
+        <v>7.5696476864450801E-11</v>
+      </c>
+      <c r="AK32" s="1">
+        <v>9.8829805210698396E-6</v>
+      </c>
+      <c r="AL32" s="1">
+        <v>6.3061564598326618E-19</v>
+      </c>
+      <c r="AM32" s="1">
+        <v>1.9838357565874316E-17</v>
+      </c>
+      <c r="AN32" s="1">
+        <v>1.2311672317787026E-17</v>
+      </c>
+      <c r="AO32" s="1">
+        <v>2.0553281331531841E-17</v>
+      </c>
+      <c r="AP32" s="1">
+        <v>1.0129430442558988E-17</v>
+      </c>
+      <c r="AQ32" s="1">
+        <v>4.9437964083728437E-19</v>
+      </c>
+      <c r="AR32" s="1">
+        <v>3.0978292018051133E-3</v>
+      </c>
+      <c r="AS32" s="1">
+        <v>7.0513653235005453E-3</v>
+      </c>
+      <c r="AT32" s="1">
+        <v>0.93313473463058472</v>
+      </c>
+      <c r="AU32" s="1">
+        <v>0.77006065845489502</v>
+      </c>
+      <c r="AV32" s="1">
+        <v>0.57312506437301636</v>
+      </c>
+      <c r="AW32" s="1">
+        <v>0.39075830578804016</v>
+      </c>
+      <c r="AX32" s="1">
+        <v>-9.3796825967729092E-4</v>
+      </c>
+      <c r="AY32" s="1">
+        <v>-2.3969833273440599E-3</v>
+      </c>
+      <c r="AZ32" s="1">
+        <v>4.4758599251508713E-2</v>
+      </c>
+      <c r="BA32" s="1">
+        <v>0.28726977109909058</v>
+      </c>
+      <c r="BB32" s="1">
+        <v>4.3325940392849375E-17</v>
+      </c>
+      <c r="BC32" s="1">
+        <v>3.6486655710654681E-15</v>
+      </c>
+      <c r="BD32" s="1">
+        <v>288</v>
+      </c>
+      <c r="BE32" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF32" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG32" s="1">
+        <v>12</v>
+      </c>
+      <c r="BH32" s="1">
+        <v>-3.7519863890994186E-4</v>
+      </c>
+      <c r="BI32" s="1">
+        <v>1.5736999557702802E-5</v>
+      </c>
+      <c r="BJ32" s="1">
+        <v>2.0000000949949025E-14</v>
+      </c>
+      <c r="BK32" s="1">
+        <v>2.9941598768346012E-4</v>
+      </c>
+      <c r="BL32" s="1">
+        <v>5.0195399671792984E-4</v>
+      </c>
+      <c r="BM32" s="1">
+        <v>1.1004899861291051E-3</v>
+      </c>
+      <c r="BN32" s="1">
+        <v>5.3710798965767026E-5</v>
+      </c>
+      <c r="BO32" s="1">
+        <v>7.9948699567466974E-4</v>
+      </c>
+      <c r="BP32" s="1">
+        <v>5.3592098993249238E-5</v>
+      </c>
+      <c r="BQ32" s="1">
+        <v>1.0998699581250548E-3</v>
+      </c>
+      <c r="BR32" s="1">
+        <v>3.1187600994218811E-20</v>
+      </c>
+      <c r="BS32" s="1">
+        <v>1.7799999999999999E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2.8844359789559348E-8</v>
+      </c>
+      <c r="D33" s="1">
+        <v>9.0294934125267901E-6</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2.0000000949949025E-14</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2.7516635600477457E-4</v>
+      </c>
+      <c r="G33" s="1">
+        <v>4.6185162500478327E-4</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1.1004899861291051E-3</v>
+      </c>
+      <c r="I33" s="1">
+        <v>5.3710802603745833E-5</v>
+      </c>
+      <c r="J33" s="1">
+        <v>7.4063771171495318E-4</v>
+      </c>
+      <c r="K33" s="1">
+        <v>5.3591247706208378E-5</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1.5193808167168754E-6</v>
+      </c>
+      <c r="M33" s="1">
+        <v>1.4128796176091735E-26</v>
+      </c>
+      <c r="N33" s="1">
+        <v>3.0080867933858284E-12</v>
+      </c>
+      <c r="O33" s="1">
+        <v>4.8511310519439196E-10</v>
+      </c>
+      <c r="P33" s="1">
+        <v>3.654346865462586E-11</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>2.3430133180825143E-12</v>
+      </c>
+      <c r="R33" s="1">
+        <v>3.9326192492278441E-12</v>
+      </c>
+      <c r="S33" s="1">
+        <v>2.0013528353964053E-14</v>
+      </c>
+      <c r="T33" s="1">
+        <v>3.0398261599850533E-12</v>
+      </c>
+      <c r="U33" s="1">
+        <v>8.9094752911478281E-4</v>
+      </c>
+      <c r="V33" s="1">
+        <v>5.7333825679961592E-5</v>
+      </c>
+      <c r="W33" s="1">
+        <v>2.4927136226899506E-20</v>
+      </c>
+      <c r="X33" s="1">
+        <v>6.2605398921210314E-21</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>3.5586549529398326E-6</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>3.3782944797167147E-7</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>3.6205929063726217E-5</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>2.0747338567161933E-6</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>3.3261596854572417E-7</v>
+      </c>
+      <c r="AD33" s="1">
+        <v>2.1842317437403835E-5</v>
+      </c>
+      <c r="AE33" s="1">
+        <v>3.7605282159347553E-6</v>
+      </c>
+      <c r="AF33" s="1">
+        <v>1.1700537783099207E-7</v>
+      </c>
+      <c r="AG33" s="1">
+        <v>8.01055648480542E-7</v>
+      </c>
+      <c r="AH33" s="1">
+        <v>4.5744902308797464E-5</v>
+      </c>
+      <c r="AI33" s="1">
+        <v>1.0280389517447475E-7</v>
+      </c>
+      <c r="AJ33" s="1">
+        <v>8.5044954412083484E-10</v>
+      </c>
+      <c r="AK33" s="1">
+        <v>9.7814518085215241E-5</v>
+      </c>
+      <c r="AL33" s="1">
+        <v>1.2036368172344136E-18</v>
+      </c>
+      <c r="AM33" s="1">
+        <v>3.7223577556026468E-17</v>
+      </c>
+      <c r="AN33" s="1">
+        <v>8.6077562087750812E-18</v>
+      </c>
+      <c r="AO33" s="1">
+        <v>1.4400874420110161E-17</v>
+      </c>
+      <c r="AP33" s="1">
+        <v>8.5905295688949215E-18</v>
+      </c>
+      <c r="AQ33" s="1">
+        <v>4.1927164121746945E-19</v>
+      </c>
+      <c r="AR33" s="1">
+        <v>3.0807185999864278E-3</v>
+      </c>
+      <c r="AS33" s="1">
+        <v>6.6473222147197053E-3</v>
+      </c>
+      <c r="AT33" s="1">
+        <v>0.93312340974807739</v>
+      </c>
+      <c r="AU33" s="1">
+        <v>0.77002733945846558</v>
+      </c>
+      <c r="AV33" s="1">
+        <v>0.5730750560760498</v>
+      </c>
+      <c r="AW33" s="1">
+        <v>0.39070364832878113</v>
+      </c>
+      <c r="AX33" s="1">
+        <v>-7.5067247962579131E-4</v>
+      </c>
+      <c r="AY33" s="1">
+        <v>-1.9461782649159431E-3</v>
+      </c>
+      <c r="AZ33" s="1">
+        <v>4.4739853590726852E-2</v>
+      </c>
+      <c r="BA33" s="1">
+        <v>0.28713178634643555</v>
+      </c>
+      <c r="BB33" s="1">
+        <v>3.8368091116447445E-17</v>
+      </c>
+      <c r="BC33" s="1">
+        <v>3.4141090189600699E-15</v>
+      </c>
+      <c r="BD33" s="1">
+        <v>288</v>
+      </c>
+      <c r="BE33" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF33" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG33" s="1">
+        <v>12</v>
+      </c>
+      <c r="BH33" s="1">
+        <v>-4.5755443279514693E-4</v>
+      </c>
+      <c r="BI33" s="1">
+        <v>1.5736999921500683E-4</v>
+      </c>
+      <c r="BJ33" s="1">
+        <v>2.0000000949949025E-14</v>
+      </c>
+      <c r="BK33" s="1">
+        <v>2.9941598768346012E-4</v>
+      </c>
+      <c r="BL33" s="1">
+        <v>5.0195399671792984E-4</v>
+      </c>
+      <c r="BM33" s="1">
+        <v>1.1004899861291051E-3</v>
+      </c>
+      <c r="BN33" s="1">
+        <v>5.3710798965767026E-5</v>
+      </c>
+      <c r="BO33" s="1">
+        <v>7.9948699567466974E-4</v>
+      </c>
+      <c r="BP33" s="1">
+        <v>5.3592098993249238E-5</v>
+      </c>
+      <c r="BQ33" s="1">
+        <v>1.0998699581250548E-3</v>
+      </c>
+      <c r="BR33" s="1">
+        <v>3.1187600994218811E-20</v>
+      </c>
+      <c r="BS33" s="1">
+        <v>1.7799999999999999E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2.9006885782223435E-8</v>
+      </c>
+      <c r="D34" s="1">
+        <v>4.1008723201230168E-4</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2.0000000949949025E-14</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2.7863663854077458E-4</v>
+      </c>
+      <c r="G34" s="1">
+        <v>4.6753429342061281E-4</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1.1004895204678178E-3</v>
+      </c>
+      <c r="I34" s="1">
+        <v>5.371078077587299E-5</v>
+      </c>
+      <c r="J34" s="1">
+        <v>7.1163440588861704E-4</v>
+      </c>
+      <c r="K34" s="1">
+        <v>5.3554253099719062E-5</v>
+      </c>
+      <c r="L34" s="1">
+        <v>2.310444955355706E-7</v>
+      </c>
+      <c r="M34" s="1">
+        <v>1.4348577138369384E-26</v>
+      </c>
+      <c r="N34" s="1">
+        <v>6.8098154578990708E-14</v>
+      </c>
+      <c r="O34" s="1">
+        <v>4.9648655988238876E-10</v>
+      </c>
+      <c r="P34" s="1">
+        <v>3.7233374140095166E-11</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>5.3464963393168076E-14</v>
+      </c>
+      <c r="R34" s="1">
+        <v>8.9710757399644141E-14</v>
+      </c>
+      <c r="S34" s="1">
+        <v>4.5510384357670534E-16</v>
+      </c>
+      <c r="T34" s="1">
+        <v>6.8737733199614301E-14</v>
+      </c>
+      <c r="U34" s="1">
+        <v>1.3355651753954589E-4</v>
+      </c>
+      <c r="V34" s="1">
+        <v>8.5464089352171868E-6</v>
+      </c>
+      <c r="W34" s="1">
+        <v>2.4955108502535723E-20</v>
+      </c>
+      <c r="X34" s="1">
+        <v>6.2324480630369063E-21</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>5.2936388783564325E-7</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>4.9971770721413122E-8</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>3.3839929528767243E-5</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>3.0871831313561415E-7</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>4.9215561404025721E-8</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>2.0421166482265107E-5</v>
+      </c>
+      <c r="AE34" s="1">
+        <v>1.6836255963426083E-4</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>5.2090981625951827E-6</v>
+      </c>
+      <c r="AG34" s="1">
+        <v>3.3590356906643137E-5</v>
+      </c>
+      <c r="AH34" s="1">
+        <v>3.0357911600731313E-4</v>
+      </c>
+      <c r="AI34" s="1">
+        <v>1.037451937691003E-7</v>
+      </c>
+      <c r="AJ34" s="1">
+        <v>3.7836070276853206E-8</v>
+      </c>
+      <c r="AK34" s="1">
+        <v>6.5278919646516442E-4</v>
+      </c>
+      <c r="AL34" s="1">
+        <v>1.6319686155313907E-18</v>
+      </c>
+      <c r="AM34" s="1">
+        <v>7.3706686353537771E-17</v>
+      </c>
+      <c r="AN34" s="1">
+        <v>1.3962816724429645E-18</v>
+      </c>
+      <c r="AO34" s="1">
+        <v>2.3379632264303808E-18</v>
+      </c>
+      <c r="AP34" s="1">
+        <v>2.6978923744383994E-18</v>
+      </c>
+      <c r="AQ34" s="1">
+        <v>1.3167404787561187E-19</v>
+      </c>
+      <c r="AR34" s="1">
+        <v>5.0958760727758522E-3</v>
+      </c>
+      <c r="AS34" s="1">
+        <v>6.8467285779963286E-3</v>
+      </c>
+      <c r="AT34" s="1">
+        <v>0.92789512872695923</v>
+      </c>
+      <c r="AU34" s="1">
+        <v>0.75483131408691406</v>
+      </c>
+      <c r="AV34" s="1">
+        <v>0.55058056116104126</v>
+      </c>
+      <c r="AW34" s="1">
+        <v>0.36649960279464722</v>
+      </c>
+      <c r="AX34" s="1">
+        <v>-3.0158285517245531E-4</v>
+      </c>
+      <c r="AY34" s="1">
+        <v>-6.9254526169970632E-4</v>
+      </c>
+      <c r="AZ34" s="1">
+        <v>3.7180680781602859E-2</v>
+      </c>
+      <c r="BA34" s="1">
+        <v>0.23203085362911224</v>
+      </c>
+      <c r="BB34" s="1">
+        <v>1.7229877683181498E-17</v>
+      </c>
+      <c r="BC34" s="1">
+        <v>1.7089372519635444E-15</v>
+      </c>
+      <c r="BD34" s="1">
+        <v>288</v>
+      </c>
+      <c r="BE34" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF34" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG34" s="1">
+        <v>12</v>
+      </c>
+      <c r="BH34" s="1">
+        <v>-7.943323201727785E-4</v>
+      </c>
+      <c r="BI34" s="1">
+        <v>1.5736999921500683E-3</v>
+      </c>
+      <c r="BJ34" s="1">
+        <v>2.0000000949949025E-14</v>
+      </c>
+      <c r="BK34" s="1">
+        <v>2.9941598768346012E-4</v>
+      </c>
+      <c r="BL34" s="1">
+        <v>5.0195399671792984E-4</v>
+      </c>
+      <c r="BM34" s="1">
+        <v>1.1004899861291051E-3</v>
+      </c>
+      <c r="BN34" s="1">
+        <v>5.3710798965767026E-5</v>
+      </c>
+      <c r="BO34" s="1">
+        <v>7.9948699567466974E-4</v>
+      </c>
+      <c r="BP34" s="1">
+        <v>5.3592098993249238E-5</v>
+      </c>
+      <c r="BQ34" s="1">
+        <v>1.0998699581250548E-3</v>
+      </c>
+      <c r="BR34" s="1">
+        <v>3.1187600994218811E-20</v>
+      </c>
+      <c r="BS34" s="1">
+        <v>1.7799999999999999E-5</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="BT7:CD26">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
   <printOptions gridLines="1"/>
   <pageMargins left="1.5" right="1.5" top="1.5" bottom="1.5" header="0.5" footer="0.5"/>
   <headerFooter>
     <oddHeader>BLM version Ver 3.57.2.45d, build 2024-03-06</oddHeader>
-    <oddFooter>BLM Output File, full_inorg.det.xls, created 04-10-2024</oddFooter>
+    <oddFooter>BLM Output File, full_inorg.det.xls, created 04-11-2024</oddFooter>
   </headerFooter>
 </worksheet>
 </file>